--- a/dataset/nacional/nacional_por_anyos.xlsx
+++ b/dataset/nacional/nacional_por_anyos.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfurn\Desktop\proyectovdd\dashboard_seguridad\dataset\nacional\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC4AD73-2DD7-47FE-9750-A931928C6322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2640" yWindow="945" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="casospoliciales" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="denuncias" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="detenciones" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="aprehendidos" sheetId="4" r:id="rId7"/>
+    <sheet name="casospoliciales" sheetId="1" r:id="rId1"/>
+    <sheet name="denuncias" sheetId="2" r:id="rId2"/>
+    <sheet name="detenciones" sheetId="3" r:id="rId3"/>
+    <sheet name="aprehendidos" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="1890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="1891">
   <si>
     <t>GRUPO DELICTUAL / DELITO</t>
   </si>
@@ -2590,9 +2599,6 @@
     <t>63632</t>
   </si>
   <si>
-    <t>6779</t>
-  </si>
-  <si>
     <t>73226</t>
   </si>
   <si>
@@ -5684,56 +5690,63 @@
   </si>
   <si>
     <t>1859</t>
+  </si>
+  <si>
+    <t>47740</t>
+  </si>
+  <si>
+    <t>67790</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="GobCL"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="GobCL"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="GobCL"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="GobCL"/>
     </font>
@@ -5743,7 +5756,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -5765,86 +5778,83 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -6034,23 +6044,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.38"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6109,7 +6124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -6123,7 +6138,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="6">
-        <v>569782.0</v>
+        <v>569782</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>23</v>
@@ -6168,7 +6183,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19">
       <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
@@ -6227,7 +6242,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:19">
       <c r="A4" s="8" t="s">
         <v>56</v>
       </c>
@@ -6286,7 +6301,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19">
       <c r="A5" s="8" t="s">
         <v>75</v>
       </c>
@@ -6345,7 +6360,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:19">
       <c r="A6" s="8" t="s">
         <v>94</v>
       </c>
@@ -6404,7 +6419,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19">
       <c r="A7" s="8" t="s">
         <v>113</v>
       </c>
@@ -6463,7 +6478,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19">
       <c r="A8" s="8" t="s">
         <v>132</v>
       </c>
@@ -6522,7 +6537,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:19">
       <c r="A9" s="8" t="s">
         <v>151</v>
       </c>
@@ -6581,7 +6596,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:19">
       <c r="A10" s="8" t="s">
         <v>170</v>
       </c>
@@ -6640,7 +6655,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:19">
       <c r="A11" s="8" t="s">
         <v>189</v>
       </c>
@@ -6699,7 +6714,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:19">
       <c r="A12" s="8" t="s">
         <v>208</v>
       </c>
@@ -6758,7 +6773,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:19">
       <c r="A13" s="8" t="s">
         <v>227</v>
       </c>
@@ -6817,7 +6832,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:19">
       <c r="A14" s="8" t="s">
         <v>246</v>
       </c>
@@ -6876,7 +6891,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>265</v>
       </c>
@@ -6935,7 +6950,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:19">
       <c r="A16" s="8" t="s">
         <v>284</v>
       </c>
@@ -6994,7 +7009,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:19">
       <c r="A17" s="8" t="s">
         <v>295</v>
       </c>
@@ -7053,7 +7068,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:19">
       <c r="A18" s="8" t="s">
         <v>313</v>
       </c>
@@ -7112,7 +7127,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:19">
       <c r="A19" s="8" t="s">
         <v>331</v>
       </c>
@@ -7171,7 +7186,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:19">
       <c r="A20" s="8" t="s">
         <v>350</v>
       </c>
@@ -7230,7 +7245,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>367</v>
       </c>
@@ -7289,7 +7304,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:19">
       <c r="A22" s="8" t="s">
         <v>386</v>
       </c>
@@ -7348,7 +7363,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:19" ht="12.75">
       <c r="A23" s="8" t="s">
         <v>405</v>
       </c>
@@ -7407,7 +7422,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:19" ht="12.75">
       <c r="A24" s="8" t="s">
         <v>424</v>
       </c>
@@ -7466,7 +7481,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:19" ht="12.75">
       <c r="A25" s="8" t="s">
         <v>443</v>
       </c>
@@ -7525,7 +7540,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:19" ht="12.75">
       <c r="A26" s="8" t="s">
         <v>462</v>
       </c>
@@ -7584,7 +7599,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:19" ht="12.75">
       <c r="A27" s="8" t="s">
         <v>481</v>
       </c>
@@ -7643,7 +7658,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:19" ht="12.75">
       <c r="A28" s="8" t="s">
         <v>500</v>
       </c>
@@ -7702,7 +7717,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:19" ht="12.75">
       <c r="A29" s="8" t="s">
         <v>519</v>
       </c>
@@ -7761,7 +7776,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:19" ht="12.75">
       <c r="A30" s="8" t="s">
         <v>536</v>
       </c>
@@ -7820,7 +7835,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:19" ht="15">
       <c r="A31" s="4" t="s">
         <v>555</v>
       </c>
@@ -7879,7 +7894,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:19" ht="15">
       <c r="A32" s="4" t="s">
         <v>574</v>
       </c>
@@ -7938,7 +7953,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:19" ht="15">
       <c r="A33" s="4" t="s">
         <v>592</v>
       </c>
@@ -7997,7 +8012,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:19" ht="12.75">
       <c r="A34" s="8" t="s">
         <v>611</v>
       </c>
@@ -8056,7 +8071,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:19" ht="12.75">
       <c r="A35" s="8" t="s">
         <v>630</v>
       </c>
@@ -8115,7 +8130,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:19" ht="12.75">
       <c r="A36" s="8" t="s">
         <v>649</v>
       </c>
@@ -8174,7 +8189,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:19" ht="12.75">
       <c r="A37" s="8" t="s">
         <v>668</v>
       </c>
@@ -8233,7 +8248,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:19" ht="12.75">
       <c r="A38" s="8" t="s">
         <v>686</v>
       </c>
@@ -8292,7 +8307,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:19" ht="15">
       <c r="A39" s="4" t="s">
         <v>704</v>
       </c>
@@ -8351,7 +8366,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:19" ht="15">
       <c r="A40" s="4" t="s">
         <v>722</v>
       </c>
@@ -8411,24 +8426,27 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.13"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -8487,7 +8505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -8546,7 +8564,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19">
       <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
@@ -8605,7 +8623,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:19">
       <c r="A4" s="8" t="s">
         <v>56</v>
       </c>
@@ -8664,7 +8682,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:19">
       <c r="A5" s="8" t="s">
         <v>75</v>
       </c>
@@ -8723,7 +8741,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:19">
       <c r="A6" s="8" t="s">
         <v>94</v>
       </c>
@@ -8782,7 +8800,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:19">
       <c r="A7" s="8" t="s">
         <v>113</v>
       </c>
@@ -8841,7 +8859,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:19">
       <c r="A8" s="8" t="s">
         <v>132</v>
       </c>
@@ -8861,7 +8879,7 @@
         <v>850</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>564</v>
+        <v>1889</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>851</v>
@@ -8885,435 +8903,435 @@
         <v>857</v>
       </c>
       <c r="O8" s="9" t="s">
+        <v>1890</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="Q8" s="9" t="s">
         <v>859</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="R8" s="9" t="s">
         <v>860</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="S8" s="9" t="s">
         <v>861</v>
       </c>
-      <c r="S8" s="9" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="8" t="s">
         <v>151</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>863</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>864</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>865</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>866</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>867</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>868</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>869</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="L9" s="9" t="s">
         <v>872</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="M9" s="9" t="s">
         <v>873</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="N9" s="9" t="s">
         <v>874</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="O9" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="P9" s="9" t="s">
         <v>876</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>877</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="R9" s="9" t="s">
         <v>878</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="S9" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="S9" s="9" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="8" t="s">
         <v>170</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>882</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>884</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>885</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>886</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="L10" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="M10" s="9" t="s">
         <v>891</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="N10" s="9" t="s">
         <v>892</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="O10" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="P10" s="9" t="s">
         <v>894</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="Q10" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="R10" s="9" t="s">
         <v>896</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="S10" s="9" t="s">
         <v>897</v>
       </c>
-      <c r="S10" s="9" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="8" t="s">
         <v>189</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>899</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>900</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>901</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>902</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>903</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>904</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>905</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>906</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>907</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>908</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>909</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="N11" s="9" t="s">
         <v>910</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="O11" s="9" t="s">
         <v>911</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="P11" s="9" t="s">
         <v>912</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="Q11" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="R11" s="9" t="s">
         <v>914</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="S11" s="9" t="s">
         <v>915</v>
       </c>
-      <c r="S11" s="9" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="8" t="s">
         <v>208</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>917</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>918</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>919</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>920</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>921</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>922</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>923</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>924</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>925</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>926</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>927</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="N12" s="9" t="s">
         <v>928</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="O12" s="9" t="s">
         <v>929</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="P12" s="9" t="s">
         <v>930</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="Q12" s="9" t="s">
         <v>931</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="R12" s="9" t="s">
         <v>932</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="S12" s="9" t="s">
         <v>933</v>
       </c>
-      <c r="S12" s="9" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="8" t="s">
         <v>227</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>936</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>938</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>939</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>940</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>941</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>942</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>943</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>944</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="M13" s="9" t="s">
         <v>945</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="N13" s="9" t="s">
         <v>946</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="O13" s="9" t="s">
         <v>947</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="P13" s="9" t="s">
         <v>948</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="Q13" s="9" t="s">
         <v>949</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="R13" s="9" t="s">
         <v>950</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="S13" s="9" t="s">
         <v>951</v>
       </c>
-      <c r="S13" s="9" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="8" t="s">
         <v>246</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>953</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>954</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>955</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>957</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>958</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>959</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>960</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>230</v>
       </c>
       <c r="K14" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="L14" s="9" t="s">
         <v>961</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="M14" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="N14" s="9" t="s">
         <v>962</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>961</v>
-      </c>
-      <c r="N14" s="9" t="s">
+      <c r="O14" s="9" t="s">
         <v>963</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="P14" s="9" t="s">
         <v>964</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="Q14" s="9" t="s">
         <v>965</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="R14" s="9" t="s">
         <v>966</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="S14" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="S14" s="9" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>265</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>969</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>970</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>971</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>972</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>973</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>975</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>977</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>978</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="N15" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="O15" s="7" t="s">
         <v>981</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="R15" s="7" t="s">
         <v>984</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="S15" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="S15" s="7" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="8" t="s">
         <v>284</v>
       </c>
@@ -9330,19 +9348,19 @@
         <v>285</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>988</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>989</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="J16" s="9" t="s">
         <v>990</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>991</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>292</v>
@@ -9354,13 +9372,13 @@
         <v>286</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>285</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>285</v>
@@ -9372,7 +9390,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:19">
       <c r="A17" s="8" t="s">
         <v>295</v>
       </c>
@@ -9380,456 +9398,456 @@
         <v>296</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>993</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>996</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>997</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="I17" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="K17" s="9" t="s">
         <v>1000</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>1001</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>306</v>
       </c>
       <c r="M17" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="O17" s="9" t="s">
         <v>1003</v>
       </c>
-      <c r="O17" s="9" t="s">
+      <c r="P17" s="9" t="s">
         <v>1004</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="Q17" s="9" t="s">
         <v>1005</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="R17" s="9" t="s">
         <v>1006</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="S17" s="9" t="s">
         <v>1007</v>
       </c>
-      <c r="S17" s="9" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="8" t="s">
         <v>313</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>1009</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>1010</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>1011</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>1012</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>1014</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="I18" s="9" t="s">
         <v>1015</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="J18" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="K18" s="9" t="s">
         <v>1017</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="L18" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="M18" s="9" t="s">
         <v>1019</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="N18" s="9" t="s">
         <v>1020</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="O18" s="9" t="s">
         <v>1021</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="P18" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="Q18" s="9" t="s">
         <v>1023</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="R18" s="9" t="s">
         <v>1024</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="S18" s="9" t="s">
         <v>1025</v>
       </c>
-      <c r="S18" s="9" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="19">
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="8" t="s">
         <v>331</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>1028</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>1029</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>305</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>278</v>
       </c>
       <c r="H19" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>1032</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="K19" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="L19" s="9" t="s">
         <v>1034</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="M19" s="9" t="s">
         <v>1035</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="N19" s="9" t="s">
         <v>1036</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="O19" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="P19" s="9" t="s">
         <v>1038</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="Q19" s="9" t="s">
         <v>1039</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="R19" s="9" t="s">
         <v>1040</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="S19" s="9" t="s">
         <v>1041</v>
       </c>
-      <c r="S19" s="9" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="8" t="s">
         <v>350</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>1043</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>1045</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>1047</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>1048</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="J20" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="K20" s="9" t="s">
         <v>1050</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="M20" s="9" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N20" s="9" t="s">
         <v>1052</v>
       </c>
-      <c r="M20" s="9" t="s">
-        <v>1009</v>
-      </c>
-      <c r="N20" s="9" t="s">
+      <c r="O20" s="9" t="s">
         <v>1053</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="P20" s="9" t="s">
         <v>1054</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="Q20" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="S20" s="9" t="s">
         <v>1055</v>
       </c>
-      <c r="Q20" s="9" t="s">
-        <v>1034</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>1032</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="21">
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>367</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>1057</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>1059</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>1060</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>1062</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>1063</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>1064</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7" t="s">
         <v>1067</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="N21" s="7" t="s">
         <v>1068</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="O21" s="7" t="s">
         <v>1069</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>1071</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="R21" s="7" t="s">
         <v>1072</v>
       </c>
-      <c r="R21" s="7" t="s">
+      <c r="S21" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="S21" s="7" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>1075</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>1076</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>1077</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>1078</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>1079</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>1081</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="J22" s="9" t="s">
         <v>1082</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="K22" s="9" t="s">
         <v>1083</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="L22" s="9" t="s">
         <v>1084</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="M22" s="9" t="s">
         <v>1085</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="N22" s="9" t="s">
         <v>1086</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="O22" s="9" t="s">
         <v>1087</v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="P22" s="9" t="s">
         <v>1088</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="Q22" s="9" t="s">
         <v>1089</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="R22" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="S22" s="9" t="s">
         <v>1090</v>
       </c>
-      <c r="R22" s="9" t="s">
-        <v>1089</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:19" ht="12.75">
       <c r="A23" s="8" t="s">
         <v>405</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>1092</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>1093</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>332</v>
       </c>
       <c r="F23" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>1094</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>1095</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="I23" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="J23" s="9" t="s">
         <v>1097</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="K23" s="9" t="s">
         <v>1098</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="L23" s="9" t="s">
         <v>1099</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="M23" s="9" t="s">
         <v>1100</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="N23" s="9" t="s">
         <v>1101</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="O23" s="9" t="s">
         <v>1102</v>
       </c>
-      <c r="O23" s="9" t="s">
+      <c r="P23" s="9" t="s">
         <v>1103</v>
       </c>
-      <c r="P23" s="9" t="s">
+      <c r="Q23" s="9" t="s">
         <v>1104</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="R23" s="9" t="s">
         <v>1105</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="S23" s="9" t="s">
         <v>1106</v>
       </c>
-      <c r="S23" s="9" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" spans="1:19" ht="12.75">
       <c r="A24" s="8" t="s">
         <v>424</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>1108</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>1109</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>1110</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>1111</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>1112</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>1113</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="I24" s="9" t="s">
         <v>1114</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="J24" s="9" t="s">
         <v>1115</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="K24" s="9" t="s">
         <v>1116</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="L24" s="9" t="s">
         <v>1117</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="M24" s="9" t="s">
         <v>1118</v>
       </c>
-      <c r="M24" s="9" t="s">
+      <c r="N24" s="9" t="s">
         <v>1119</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="O24" s="9" t="s">
         <v>1120</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>1121</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>439</v>
@@ -9844,172 +9862,172 @@
         <v>442</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:19" ht="12.75">
       <c r="A25" s="8" t="s">
         <v>443</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>1122</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>1123</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>1124</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="F25" s="9" t="s">
         <v>1125</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>1126</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="H25" s="9" t="s">
         <v>1127</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="I25" s="9" t="s">
         <v>1128</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="J25" s="9" t="s">
         <v>1129</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="K25" s="9" t="s">
         <v>1130</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="L25" s="9" t="s">
         <v>1131</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="M25" s="9" t="s">
         <v>1132</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="N25" s="9" t="s">
         <v>1133</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="O25" s="9" t="s">
         <v>1134</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="P25" s="9" t="s">
         <v>1135</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="Q25" s="9" t="s">
         <v>1136</v>
       </c>
-      <c r="Q25" s="9" t="s">
+      <c r="R25" s="9" t="s">
         <v>1137</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="S25" s="9" t="s">
         <v>1138</v>
       </c>
-      <c r="S25" s="9" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="26">
+    </row>
+    <row r="26" spans="1:19" ht="12.75">
       <c r="A26" s="8" t="s">
         <v>462</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>1141</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>1142</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>1143</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>45</v>
       </c>
       <c r="H26" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I26" s="9" t="s">
         <v>1144</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="J26" s="9" t="s">
         <v>1145</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="K26" s="9" t="s">
         <v>1146</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="L26" s="9" t="s">
         <v>1147</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="M26" s="9" t="s">
         <v>1148</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="N26" s="9" t="s">
         <v>1149</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="O26" s="9" t="s">
         <v>1150</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="P26" s="9" t="s">
         <v>1151</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="Q26" s="9" t="s">
         <v>1152</v>
       </c>
-      <c r="Q26" s="9" t="s">
+      <c r="R26" s="9" t="s">
         <v>1153</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="S26" s="9" t="s">
         <v>1154</v>
       </c>
-      <c r="S26" s="9" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="27">
+    </row>
+    <row r="27" spans="1:19" ht="12.75">
       <c r="A27" s="8" t="s">
         <v>481</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>1156</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>1157</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>1158</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>1159</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="G27" s="9" t="s">
         <v>1160</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>1161</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="I27" s="9" t="s">
         <v>1162</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>1163</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="K27" s="9" t="s">
         <v>1164</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="L27" s="9" t="s">
         <v>1165</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="M27" s="9" t="s">
         <v>1166</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="N27" s="9" t="s">
         <v>1167</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="O27" s="9" t="s">
         <v>1168</v>
       </c>
-      <c r="O27" s="9" t="s">
+      <c r="P27" s="9" t="s">
         <v>1169</v>
-      </c>
-      <c r="P27" s="9" t="s">
-        <v>1170</v>
       </c>
       <c r="Q27" s="9" t="s">
         <v>497</v>
@@ -10021,66 +10039,66 @@
         <v>499</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:19" ht="12.75">
       <c r="A28" s="8" t="s">
         <v>500</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>1171</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>1172</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>1173</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>1174</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>1175</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="H28" s="9" t="s">
         <v>1176</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="I28" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="J28" s="9" t="s">
         <v>1178</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="K28" s="9" t="s">
         <v>1179</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="L28" s="9" t="s">
         <v>1180</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="M28" s="9" t="s">
         <v>1181</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="N28" s="9" t="s">
         <v>1182</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="O28" s="9" t="s">
         <v>1183</v>
       </c>
-      <c r="O28" s="9" t="s">
+      <c r="P28" s="9" t="s">
         <v>1184</v>
       </c>
-      <c r="P28" s="9" t="s">
+      <c r="Q28" s="9" t="s">
         <v>1185</v>
       </c>
-      <c r="Q28" s="9" t="s">
+      <c r="R28" s="9" t="s">
         <v>1186</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="S28" s="9" t="s">
         <v>1187</v>
       </c>
-      <c r="S28" s="9" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="29">
+    </row>
+    <row r="29" spans="1:19" ht="12.75">
       <c r="A29" s="8" t="s">
         <v>519</v>
       </c>
@@ -10091,81 +10109,81 @@
         <v>285</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>1189</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F29" s="9" t="s">
+      <c r="G29" s="9" t="s">
         <v>1190</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>1191</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="I29" s="9" t="s">
         <v>1192</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>1193</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>314</v>
       </c>
       <c r="K29" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="L29" s="9" t="s">
         <v>1194</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="M29" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N29" s="9" t="s">
         <v>1195</v>
       </c>
-      <c r="M29" s="9" t="s">
-        <v>1054</v>
-      </c>
-      <c r="N29" s="9" t="s">
+      <c r="O29" s="9" t="s">
         <v>1196</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="P29" s="9" t="s">
         <v>1197</v>
       </c>
-      <c r="P29" s="9" t="s">
+      <c r="Q29" s="9" t="s">
         <v>1198</v>
       </c>
-      <c r="Q29" s="9" t="s">
+      <c r="R29" s="9" t="s">
         <v>1199</v>
       </c>
-      <c r="R29" s="9" t="s">
+      <c r="S29" s="9" t="s">
         <v>1200</v>
       </c>
-      <c r="S29" s="9" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:19" ht="12.75">
       <c r="A30" s="8" t="s">
         <v>536</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>1202</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>1203</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>1204</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="F30" s="9" t="s">
         <v>1205</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="G30" s="9" t="s">
         <v>1206</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" s="9" t="s">
         <v>1207</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="I30" s="9" t="s">
         <v>1208</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>1209</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>545</v>
@@ -10186,137 +10204,137 @@
         <v>550</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Q30" s="9" t="s">
         <v>414</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="S30" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:19" ht="15">
       <c r="A31" s="4" t="s">
         <v>555</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>1212</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>1214</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>1215</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>1217</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>1219</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>1220</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>1221</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="N31" s="7" t="s">
         <v>1223</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>1224</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>297</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="Q31" s="7" t="s">
+      <c r="R31" s="7" t="s">
         <v>1226</v>
       </c>
-      <c r="R31" s="7" t="s">
+      <c r="S31" s="7" t="s">
         <v>1227</v>
       </c>
-      <c r="S31" s="7" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="32">
+    </row>
+    <row r="32" spans="1:19" ht="15">
       <c r="A32" s="4" t="s">
         <v>574</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>1229</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>1230</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>1231</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>1232</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>1233</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>1234</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>1235</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>1236</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>1237</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>1238</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>1239</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>131</v>
       </c>
       <c r="N32" s="7" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>1240</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>1241</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>1242</v>
       </c>
-      <c r="Q32" s="7" t="s">
+      <c r="R32" s="7" t="s">
         <v>1243</v>
       </c>
-      <c r="R32" s="7" t="s">
+      <c r="S32" s="7" t="s">
         <v>1244</v>
       </c>
-      <c r="S32" s="7" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="1:19" ht="15">
       <c r="A33" s="4" t="s">
         <v>592</v>
       </c>
@@ -10324,58 +10342,58 @@
         <v>55</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>1246</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>1247</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>1248</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>1249</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>1250</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>1251</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="J33" s="7" t="s">
         <v>1252</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="K33" s="7" t="s">
         <v>1253</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>1254</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="M33" s="7" t="s">
         <v>1255</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="N33" s="7" t="s">
         <v>1256</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="O33" s="7" t="s">
         <v>1257</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="P33" s="7" t="s">
         <v>1258</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>1259</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>541</v>
       </c>
       <c r="R33" s="7" t="s">
+        <v>1259</v>
+      </c>
+      <c r="S33" s="7" t="s">
         <v>1260</v>
       </c>
-      <c r="S33" s="7" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="34">
+    </row>
+    <row r="34" spans="1:19" ht="12.75">
       <c r="A34" s="8" t="s">
         <v>611</v>
       </c>
@@ -10383,176 +10401,176 @@
         <v>52</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>1262</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="9" t="s">
         <v>1263</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="F34" s="9" t="s">
         <v>1264</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>1265</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>1266</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>1267</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>1268</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="K34" s="9" t="s">
         <v>1269</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="L34" s="9" t="s">
         <v>1270</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="M34" s="9" t="s">
         <v>1271</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="N34" s="9" t="s">
         <v>1272</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="O34" s="9" t="s">
         <v>1273</v>
       </c>
-      <c r="O34" s="9" t="s">
+      <c r="P34" s="9" t="s">
         <v>1274</v>
       </c>
-      <c r="P34" s="9" t="s">
+      <c r="Q34" s="9" t="s">
         <v>1275</v>
       </c>
-      <c r="Q34" s="9" t="s">
+      <c r="R34" s="9" t="s">
         <v>1276</v>
       </c>
-      <c r="R34" s="9" t="s">
+      <c r="S34" s="9" t="s">
         <v>1277</v>
       </c>
-      <c r="S34" s="9" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="35">
+    </row>
+    <row r="35" spans="1:19" ht="12.75">
       <c r="A35" s="8" t="s">
         <v>630</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>1279</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>1280</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>1281</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>1282</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>1283</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>1284</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="I35" s="9" t="s">
         <v>1285</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="J35" s="9" t="s">
         <v>1286</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="K35" s="9" t="s">
         <v>1287</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="L35" s="9" t="s">
         <v>1288</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="M35" s="9" t="s">
         <v>1289</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="N35" s="9" t="s">
         <v>1290</v>
       </c>
-      <c r="N35" s="9" t="s">
+      <c r="O35" s="9" t="s">
         <v>1291</v>
       </c>
-      <c r="O35" s="9" t="s">
+      <c r="P35" s="9" t="s">
         <v>1292</v>
       </c>
-      <c r="P35" s="9" t="s">
+      <c r="Q35" s="9" t="s">
         <v>1293</v>
       </c>
-      <c r="Q35" s="9" t="s">
+      <c r="R35" s="9" t="s">
         <v>1294</v>
       </c>
-      <c r="R35" s="9" t="s">
+      <c r="S35" s="9" t="s">
         <v>1295</v>
       </c>
-      <c r="S35" s="9" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="36">
+    </row>
+    <row r="36" spans="1:19" ht="12.75">
       <c r="A36" s="8" t="s">
         <v>649</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>1297</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>1298</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>1299</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>1300</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>1301</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>1302</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>1303</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="J36" s="9" t="s">
         <v>1304</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="K36" s="9" t="s">
         <v>1305</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="L36" s="9" t="s">
         <v>1306</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="M36" s="9" t="s">
         <v>1307</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="N36" s="9" t="s">
         <v>1308</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="O36" s="9" t="s">
         <v>1309</v>
       </c>
-      <c r="O36" s="9" t="s">
+      <c r="P36" s="9" t="s">
         <v>1310</v>
       </c>
-      <c r="P36" s="9" t="s">
+      <c r="Q36" s="9" t="s">
         <v>1311</v>
       </c>
-      <c r="Q36" s="9" t="s">
+      <c r="R36" s="9" t="s">
         <v>1312</v>
       </c>
-      <c r="R36" s="9" t="s">
+      <c r="S36" s="9" t="s">
         <v>1313</v>
       </c>
-      <c r="S36" s="9" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="37">
+    </row>
+    <row r="37" spans="1:19" ht="12.75">
       <c r="A37" s="8" t="s">
         <v>668</v>
       </c>
@@ -10560,63 +10578,63 @@
         <v>18</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>525</v>
       </c>
       <c r="E37" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>1316</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="G37" s="9" t="s">
         <v>1317</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>1318</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="I37" s="9" t="s">
         <v>1319</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="J37" s="9" t="s">
         <v>1320</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="K37" s="9" t="s">
         <v>1321</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="L37" s="9" t="s">
         <v>1322</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="M37" s="9" t="s">
         <v>1323</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="N37" s="9" t="s">
         <v>1324</v>
       </c>
-      <c r="N37" s="9" t="s">
+      <c r="O37" s="9" t="s">
         <v>1325</v>
       </c>
-      <c r="O37" s="9" t="s">
+      <c r="P37" s="9" t="s">
         <v>1326</v>
       </c>
-      <c r="P37" s="9" t="s">
+      <c r="Q37" s="9" t="s">
         <v>1327</v>
       </c>
-      <c r="Q37" s="9" t="s">
+      <c r="R37" s="9" t="s">
         <v>1328</v>
       </c>
-      <c r="R37" s="9" t="s">
+      <c r="S37" s="9" t="s">
         <v>1329</v>
       </c>
-      <c r="S37" s="9" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:19" ht="12.75">
       <c r="A38" s="8" t="s">
         <v>686</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>688</v>
@@ -10631,10 +10649,10 @@
         <v>691</v>
       </c>
       <c r="G38" s="9" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>1332</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>1333</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>694</v>
@@ -10652,161 +10670,162 @@
         <v>698</v>
       </c>
       <c r="N38" s="9" t="s">
+        <v>1333</v>
+      </c>
+      <c r="O38" s="9" t="s">
         <v>1334</v>
       </c>
-      <c r="O38" s="9" t="s">
+      <c r="P38" s="9" t="s">
         <v>1335</v>
       </c>
-      <c r="P38" s="9" t="s">
+      <c r="Q38" s="9" t="s">
         <v>1336</v>
       </c>
-      <c r="Q38" s="9" t="s">
+      <c r="R38" s="9" t="s">
         <v>1337</v>
       </c>
-      <c r="R38" s="9" t="s">
+      <c r="S38" s="9" t="s">
         <v>1338</v>
       </c>
-      <c r="S38" s="9" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="39">
+    </row>
+    <row r="39" spans="1:19" ht="15">
       <c r="A39" s="4" t="s">
         <v>704</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>1340</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>1341</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>558</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>1342</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>1343</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>568</v>
       </c>
       <c r="H39" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I39" s="7" t="s">
         <v>1344</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="J39" s="7" t="s">
         <v>1345</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="K39" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>1346</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>1347</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>480</v>
       </c>
       <c r="N39" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="O39" s="7" t="s">
         <v>1348</v>
       </c>
-      <c r="O39" s="7" t="s">
+      <c r="P39" s="7" t="s">
         <v>1349</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>1350</v>
       </c>
-      <c r="Q39" s="7" t="s">
+      <c r="R39" s="7" t="s">
         <v>1351</v>
-      </c>
-      <c r="R39" s="7" t="s">
-        <v>1352</v>
       </c>
       <c r="S39" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:19" ht="15">
       <c r="A40" s="4" t="s">
         <v>722</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>1353</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>1354</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>1355</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>1356</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>1357</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>1358</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>1359</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="J40" s="7" t="s">
         <v>1360</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>1361</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>1362</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="M40" s="7" t="s">
         <v>1363</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="N40" s="7" t="s">
         <v>1364</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="O40" s="7" t="s">
         <v>1365</v>
       </c>
-      <c r="O40" s="7" t="s">
+      <c r="P40" s="7" t="s">
         <v>1366</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>1367</v>
       </c>
-      <c r="Q40" s="7" t="s">
+      <c r="R40" s="7" t="s">
         <v>1368</v>
       </c>
-      <c r="R40" s="7" t="s">
+      <c r="S40" s="7" t="s">
         <v>1369</v>
       </c>
-      <c r="S40" s="7" t="s">
-        <v>1370</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.75"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -10865,104 +10884,104 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1371</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>1372</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>1373</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>1374</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>1375</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>1376</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>1377</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>1378</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>1379</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>1380</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>1381</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>1382</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>1383</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>1384</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>1385</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>1386</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>1387</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>230</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>1390</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>1391</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>1392</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>1393</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>1394</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>1395</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>1396</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>1397</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>1398</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>1399</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>771</v>
@@ -10971,653 +10990,653 @@
         <v>255</v>
       </c>
       <c r="P3" s="9" t="s">
+        <v>1399</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>1400</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>1401</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>1402</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>1404</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>1405</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>1406</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>1407</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>1408</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>1409</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>1410</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>1411</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>1412</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>1413</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>1414</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>1415</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>1416</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>1417</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>1418</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>1419</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>1420</v>
       </c>
-      <c r="S4" s="9" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>1422</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>1423</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>1424</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>1425</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>1426</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>1427</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>1428</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>1429</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>1430</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>1431</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>1432</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>1433</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>1434</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>1435</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>1436</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="R5" s="9" t="s">
         <v>1437</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="S5" s="9" t="s">
         <v>1438</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>1440</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>1441</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>1442</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1443</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>680</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>1444</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>1445</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>1446</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>1447</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>1448</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>1449</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>1450</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="O6" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>1451</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>1005</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>1452</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>768</v>
       </c>
       <c r="R6" s="9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>1453</v>
       </c>
-      <c r="S6" s="9" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>1455</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>1456</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>1457</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>1458</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>1459</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>1460</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>1461</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>1462</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>1463</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>1464</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>52</v>
       </c>
       <c r="M7" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>1465</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>1466</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="P7" s="9" t="s">
         <v>1467</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="Q7" s="9" t="s">
         <v>1468</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>1469</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="S7" s="9" t="s">
         <v>1470</v>
       </c>
-      <c r="S7" s="9" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>678</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>1473</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>1474</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>1475</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>1476</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>1476</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>1477</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>1477</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>1477</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>1478</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="M8" s="9" t="s">
         <v>1479</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="N8" s="9" t="s">
         <v>1480</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="O8" s="9" t="s">
         <v>1481</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="P8" s="9" t="s">
         <v>1482</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="Q8" s="9" t="s">
         <v>1483</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="R8" s="9" t="s">
         <v>1484</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="S8" s="9" t="s">
         <v>1485</v>
       </c>
-      <c r="S8" s="9" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="8" t="s">
         <v>151</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>1487</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>1488</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>1489</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>1490</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>1491</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>1492</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>1493</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>1494</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>1495</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="L9" s="9" t="s">
         <v>1496</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="M9" s="9" t="s">
         <v>1497</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="N9" s="9" t="s">
+        <v>1496</v>
+      </c>
+      <c r="O9" s="9" t="s">
         <v>1498</v>
       </c>
-      <c r="N9" s="9" t="s">
-        <v>1497</v>
-      </c>
-      <c r="O9" s="9" t="s">
+      <c r="P9" s="9" t="s">
         <v>1499</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>1500</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="R9" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="S9" s="9" t="s">
         <v>1501</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>1094</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="8" t="s">
         <v>170</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>1503</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>1504</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>695</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>1505</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>1506</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>1507</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>1508</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>1509</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>1510</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="L10" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>1511</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>1054</v>
-      </c>
-      <c r="M10" s="9" t="s">
+      <c r="N10" s="9" t="s">
         <v>1512</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="O10" s="9" t="s">
         <v>1513</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="P10" s="9" t="s">
         <v>1514</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="Q10" s="9" t="s">
         <v>1515</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="R10" s="9" t="s">
         <v>1516</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="S10" s="9" t="s">
         <v>1517</v>
       </c>
-      <c r="S10" s="9" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="8" t="s">
         <v>189</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>1519</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>1520</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>1521</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>1522</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>1519</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>1523</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>1524</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>1525</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>1526</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>1527</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>1528</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="N11" s="9" t="s">
         <v>1529</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="O11" s="9" t="s">
         <v>1530</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="P11" s="9" t="s">
         <v>1531</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="Q11" s="9" t="s">
         <v>1532</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="R11" s="9" t="s">
         <v>1533</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="S11" s="9" t="s">
         <v>1534</v>
       </c>
-      <c r="S11" s="9" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="8" t="s">
         <v>208</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>1536</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>1537</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>1538</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>1539</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>997</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>1540</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>1541</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>1542</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>1543</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>1544</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>1545</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="N12" s="9" t="s">
         <v>1546</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="O12" s="9" t="s">
         <v>1547</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="P12" s="9" t="s">
         <v>1548</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="Q12" s="9" t="s">
         <v>1549</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="R12" s="9" t="s">
         <v>1550</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="S12" s="9" t="s">
         <v>1551</v>
       </c>
-      <c r="S12" s="9" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="8" t="s">
         <v>227</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>1553</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>947</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>1554</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>1555</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>1556</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>1557</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>1558</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="9" t="s">
+        <v>1391</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>1559</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>1392</v>
-      </c>
-      <c r="K13" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>1560</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="M13" s="9" t="s">
         <v>1561</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="N13" s="9" t="s">
         <v>1562</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="O13" s="9" t="s">
         <v>1563</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="P13" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="Q13" s="9" t="s">
         <v>1564</v>
       </c>
-      <c r="P13" s="9" t="s">
-        <v>957</v>
-      </c>
-      <c r="Q13" s="9" t="s">
+      <c r="R13" s="9" t="s">
         <v>1565</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="S13" s="9" t="s">
         <v>1566</v>
       </c>
-      <c r="S13" s="9" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="8" t="s">
         <v>246</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>1568</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>961</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>1569</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>1570</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>360</v>
       </c>
       <c r="G14" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>1571</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>1572</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>1340</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>1573</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>1574</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>1575</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>767</v>
       </c>
       <c r="N14" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="O14" s="9" t="s">
         <v>1576</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>1577</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>352</v>
@@ -11626,72 +11645,72 @@
         <v>352</v>
       </c>
       <c r="R14" s="9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="S14" s="9" t="s">
         <v>1578</v>
       </c>
-      <c r="S14" s="9" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>265</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>1580</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>1581</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>1582</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>1583</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>1584</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>1585</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>1586</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>1587</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>1588</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7" t="s">
         <v>1589</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="N15" s="7" t="s">
         <v>1590</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="O15" s="7" t="s">
         <v>1591</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>1592</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>1593</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="R15" s="7" t="s">
         <v>1594</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="S15" s="7" t="s">
         <v>1595</v>
       </c>
-      <c r="S15" s="7" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="8" t="s">
         <v>284</v>
       </c>
@@ -11708,37 +11727,37 @@
         <v>285</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>285</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O16" s="9" t="s">
         <v>285</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>285</v>
@@ -11750,7 +11769,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:19">
       <c r="A17" s="8" t="s">
         <v>295</v>
       </c>
@@ -11758,31 +11777,31 @@
         <v>285</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>534</v>
       </c>
       <c r="F17" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>1597</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>1598</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>992</v>
-      </c>
-      <c r="I17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>1599</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>1600</v>
-      </c>
       <c r="K17" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>285</v>
@@ -11797,10 +11816,10 @@
         <v>294</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>534</v>
@@ -11809,243 +11828,243 @@
         <v>294</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:19">
       <c r="A18" s="8" t="s">
         <v>313</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>688</v>
       </c>
       <c r="F18" s="9" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>1602</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="I18" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>1603</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="K18" s="9" t="s">
         <v>1604</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="L18" s="9" t="s">
         <v>1605</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="M18" s="9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="O18" s="9" t="s">
         <v>1606</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>1491</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>1395</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>1607</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>773</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>310</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="8" t="s">
         <v>331</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>1609</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>1610</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>1611</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>1612</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>1613</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>1614</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="I19" s="9" t="s">
         <v>1615</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>1616</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="K19" s="9" t="s">
         <v>1617</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="L19" s="9" t="s">
         <v>1618</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="M19" s="9" t="s">
         <v>1619</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="N19" s="9" t="s">
         <v>1620</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="O19" s="9" t="s">
         <v>1621</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="P19" s="9" t="s">
         <v>1622</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="Q19" s="9" t="s">
         <v>1623</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="R19" s="9" t="s">
         <v>1624</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="S19" s="9" t="s">
         <v>1625</v>
       </c>
-      <c r="S19" s="9" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="8" t="s">
         <v>350</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>771</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>1628</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>1629</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>1629</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>1440</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>1630</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>308</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>558</v>
       </c>
       <c r="N20" s="9" t="s">
+        <v>1631</v>
+      </c>
+      <c r="O20" s="9" t="s">
         <v>1632</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="P20" s="9" t="s">
         <v>1633</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>1634</v>
       </c>
       <c r="Q20" s="9" t="s">
         <v>354</v>
       </c>
       <c r="R20" s="9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="S20" s="9" t="s">
         <v>1635</v>
       </c>
-      <c r="S20" s="9" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="21">
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>367</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>1637</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>1638</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>1639</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>1640</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>1641</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>1642</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>1643</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>1644</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>1645</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>1646</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7" t="s">
         <v>1647</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="N21" s="7" t="s">
         <v>1648</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="O21" s="7" t="s">
         <v>1649</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>1650</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>1651</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="R21" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="S21" s="7" t="s">
         <v>1652</v>
       </c>
-      <c r="R21" s="7" t="s">
-        <v>947</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="8" t="s">
         <v>386</v>
       </c>
@@ -12053,99 +12072,99 @@
         <v>476</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>1654</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>1655</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>1656</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>1657</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>1658</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>1659</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="J22" s="9" t="s">
         <v>1660</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="K22" s="9" t="s">
         <v>1661</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="L22" s="9" t="s">
         <v>1662</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="M22" s="9" t="s">
         <v>1663</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="N22" s="9" t="s">
         <v>1664</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="O22" s="9" t="s">
         <v>1665</v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="P22" s="9" t="s">
         <v>1666</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="Q22" s="9" t="s">
         <v>1667</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="R22" s="9" t="s">
         <v>1668</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="S22" s="9" t="s">
         <v>1669</v>
       </c>
-      <c r="S22" s="9" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:19" ht="12.75">
       <c r="A23" s="8" t="s">
         <v>405</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>1671</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>1672</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="9" t="s">
         <v>1673</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>1674</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>1675</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>1676</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="I23" s="9" t="s">
         <v>1677</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="J23" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>1678</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>999</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>1491</v>
-      </c>
-      <c r="L23" s="9" t="s">
+      <c r="M23" s="9" t="s">
         <v>1679</v>
       </c>
-      <c r="M23" s="9" t="s">
-        <v>1680</v>
-      </c>
       <c r="N23" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="O23" s="9" t="s">
         <v>534</v>
@@ -12154,48 +12173,48 @@
         <v>366</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="12.75">
       <c r="A24" s="8" t="s">
         <v>424</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>1682</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>1683</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>1684</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>1685</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>1686</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>1687</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="I24" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>1688</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>960</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="K24" s="9" t="s">
         <v>1689</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>1690</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>534</v>
@@ -12204,10 +12223,10 @@
         <v>294</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>285</v>
@@ -12222,163 +12241,163 @@
         <v>285</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:19" ht="12.75">
       <c r="A25" s="8" t="s">
         <v>443</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>1691</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>1692</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>1693</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="F25" s="9" t="s">
         <v>1694</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>1695</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>712</v>
       </c>
       <c r="H25" s="9" t="s">
+        <v>1695</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>1696</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="J25" s="9" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>1697</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>1694</v>
-      </c>
-      <c r="K25" s="9" t="s">
+      <c r="L25" s="9" t="s">
         <v>1698</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="M25" s="9" t="s">
         <v>1699</v>
       </c>
-      <c r="M25" s="9" t="s">
+      <c r="N25" s="9" t="s">
         <v>1700</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="O25" s="9" t="s">
         <v>1701</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="P25" s="9" t="s">
         <v>1702</v>
       </c>
-      <c r="P25" s="9" t="s">
+      <c r="Q25" s="9" t="s">
+        <v>1447</v>
+      </c>
+      <c r="R25" s="9" t="s">
         <v>1703</v>
       </c>
-      <c r="Q25" s="9" t="s">
-        <v>1448</v>
-      </c>
-      <c r="R25" s="9" t="s">
+      <c r="S25" s="9" t="s">
         <v>1704</v>
       </c>
-      <c r="S25" s="9" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="26">
+    </row>
+    <row r="26" spans="1:19" ht="12.75">
       <c r="A26" s="8" t="s">
         <v>462</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>1706</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>1707</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>1708</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>1709</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>1710</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>1711</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="I26" s="9" t="s">
         <v>1712</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="J26" s="9" t="s">
         <v>1713</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="K26" s="9" t="s">
         <v>1714</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="L26" s="9" t="s">
         <v>1715</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>1716</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>2</v>
       </c>
       <c r="N26" s="9" t="s">
+        <v>1716</v>
+      </c>
+      <c r="O26" s="9" t="s">
         <v>1717</v>
       </c>
-      <c r="O26" s="9" t="s">
+      <c r="P26" s="9" t="s">
         <v>1718</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="Q26" s="9" t="s">
         <v>1719</v>
       </c>
-      <c r="Q26" s="9" t="s">
+      <c r="R26" s="9" t="s">
         <v>1720</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>1721</v>
       </c>
       <c r="S26" s="9" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:19" ht="12.75">
       <c r="A27" s="8" t="s">
         <v>481</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>1722</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>1723</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>1724</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>1725</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="G27" s="9" t="s">
         <v>1726</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>1727</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="I27" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>1728</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J27" s="9" t="s">
+      <c r="K27" s="9" t="s">
         <v>1729</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="L27" s="9" t="s">
         <v>1730</v>
       </c>
-      <c r="L27" s="9" t="s">
-        <v>1731</v>
-      </c>
       <c r="M27" s="9" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="N27" s="9" t="s">
         <v>534</v>
@@ -12399,66 +12418,66 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:19" ht="12.75">
       <c r="A28" s="8" t="s">
         <v>500</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>365</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>1732</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>1733</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="G28" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>1734</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H28" s="9" t="s">
+      <c r="I28" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>1735</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>1151</v>
-      </c>
-      <c r="J28" s="9" t="s">
+      <c r="K28" s="9" t="s">
         <v>1736</v>
       </c>
-      <c r="K28" s="9" t="s">
-        <v>1737</v>
-      </c>
       <c r="L28" s="9" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>312</v>
       </c>
       <c r="N28" s="9" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O28" s="9" t="s">
         <v>1738</v>
       </c>
-      <c r="O28" s="9" t="s">
+      <c r="P28" s="9" t="s">
         <v>1739</v>
-      </c>
-      <c r="P28" s="9" t="s">
-        <v>1740</v>
       </c>
       <c r="Q28" s="9" t="s">
         <v>305</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="12.75">
       <c r="A29" s="8" t="s">
         <v>519</v>
       </c>
@@ -12469,55 +12488,55 @@
         <v>285</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>1742</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="F29" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>1743</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>1274</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>915</v>
-      </c>
-      <c r="H29" s="9" t="s">
+      <c r="I29" s="9" t="s">
         <v>1744</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="J29" s="9" t="s">
         <v>1745</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="K29" s="9" t="s">
         <v>1746</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="L29" s="9" t="s">
         <v>1747</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="M29" s="9" t="s">
+        <v>1539</v>
+      </c>
+      <c r="N29" s="9" t="s">
         <v>1748</v>
       </c>
-      <c r="M29" s="9" t="s">
-        <v>1540</v>
-      </c>
-      <c r="N29" s="9" t="s">
+      <c r="O29" s="9" t="s">
         <v>1749</v>
       </c>
-      <c r="O29" s="9" t="s">
+      <c r="P29" s="9" t="s">
         <v>1750</v>
       </c>
-      <c r="P29" s="9" t="s">
+      <c r="Q29" s="9" t="s">
         <v>1751</v>
       </c>
-      <c r="Q29" s="9" t="s">
+      <c r="R29" s="9" t="s">
         <v>1752</v>
       </c>
-      <c r="R29" s="9" t="s">
+      <c r="S29" s="9" t="s">
         <v>1753</v>
       </c>
-      <c r="S29" s="9" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:19" ht="12.75">
       <c r="A30" s="8" t="s">
         <v>536</v>
       </c>
@@ -12525,25 +12544,25 @@
         <v>294</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>294</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>294</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>285</v>
@@ -12564,437 +12583,437 @@
         <v>285</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="Q30" s="9" t="s">
         <v>278</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15">
       <c r="A31" s="4" t="s">
         <v>555</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>1756</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>1757</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>1401</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>1758</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>1391</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>1402</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>1759</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>763</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15">
       <c r="A32" s="4" t="s">
         <v>574</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>1761</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>1762</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>1763</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>1764</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>1765</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>1197</v>
-      </c>
-      <c r="H32" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>1766</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>1767</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>1768</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>1769</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7" t="s">
         <v>1770</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="N32" s="7" t="s">
         <v>1771</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="O32" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>1772</v>
       </c>
-      <c r="O32" s="7" t="s">
-        <v>1768</v>
-      </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>1773</v>
       </c>
-      <c r="Q32" s="7" t="s">
+      <c r="R32" s="7" t="s">
         <v>1774</v>
       </c>
-      <c r="R32" s="7" t="s">
+      <c r="S32" s="7" t="s">
         <v>1775</v>
       </c>
-      <c r="S32" s="7" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="1:19" ht="15">
       <c r="A33" s="4" t="s">
         <v>592</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>1777</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>1778</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>1779</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>1780</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>1781</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>1782</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>1783</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="J33" s="7" t="s">
         <v>1784</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="K33" s="7" t="s">
         <v>1785</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>1786</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="M33" s="7" t="s">
         <v>1787</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="N33" s="7" t="s">
         <v>1788</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="O33" s="7" t="s">
         <v>1789</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="P33" s="7" t="s">
         <v>1790</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>1791</v>
       </c>
-      <c r="Q33" s="7" t="s">
+      <c r="R33" s="7" t="s">
         <v>1792</v>
       </c>
-      <c r="R33" s="7" t="s">
+      <c r="S33" s="7" t="s">
         <v>1793</v>
       </c>
-      <c r="S33" s="7" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="34">
+    </row>
+    <row r="34" spans="1:19" ht="12.75">
       <c r="A34" s="8" t="s">
         <v>611</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>1795</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="9" t="s">
         <v>1796</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="F34" s="9" t="s">
         <v>1797</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>1798</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>1799</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>1800</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>1801</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="K34" s="9" t="s">
         <v>1802</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="L34" s="9" t="s">
         <v>1803</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>1804</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>278</v>
       </c>
       <c r="N34" s="9" t="s">
+        <v>1803</v>
+      </c>
+      <c r="O34" s="9" t="s">
         <v>1804</v>
       </c>
-      <c r="O34" s="9" t="s">
+      <c r="P34" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>1348</v>
+      </c>
+      <c r="R34" s="9" t="s">
         <v>1805</v>
       </c>
-      <c r="P34" s="9" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Q34" s="9" t="s">
-        <v>1349</v>
-      </c>
-      <c r="R34" s="9" t="s">
+      <c r="S34" s="9" t="s">
         <v>1806</v>
       </c>
-      <c r="S34" s="9" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="35">
+    </row>
+    <row r="35" spans="1:19" ht="12.75">
       <c r="A35" s="8" t="s">
         <v>630</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>1808</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>1809</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>1810</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>1811</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>1812</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="I35" s="9" t="s">
         <v>1813</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="J35" s="9" t="s">
         <v>1814</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="K35" s="9" t="s">
         <v>1815</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="L35" s="9" t="s">
         <v>1816</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="M35" s="9" t="s">
         <v>1817</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="N35" s="9" t="s">
         <v>1818</v>
       </c>
-      <c r="N35" s="9" t="s">
+      <c r="O35" s="9" t="s">
         <v>1819</v>
       </c>
-      <c r="O35" s="9" t="s">
+      <c r="P35" s="9" t="s">
         <v>1820</v>
       </c>
-      <c r="P35" s="9" t="s">
+      <c r="Q35" s="9" t="s">
         <v>1821</v>
       </c>
-      <c r="Q35" s="9" t="s">
+      <c r="R35" s="9" t="s">
         <v>1822</v>
       </c>
-      <c r="R35" s="9" t="s">
+      <c r="S35" s="9" t="s">
         <v>1823</v>
       </c>
-      <c r="S35" s="9" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="36">
+    </row>
+    <row r="36" spans="1:19" ht="12.75">
       <c r="A36" s="8" t="s">
         <v>649</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>1825</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>1826</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>1827</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>1828</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>1829</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>1830</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>1831</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="J36" s="9" t="s">
         <v>1832</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="K36" s="9" t="s">
         <v>1833</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="L36" s="9" t="s">
         <v>1834</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="M36" s="9" t="s">
         <v>1835</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="N36" s="9" t="s">
         <v>1836</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="O36" s="9" t="s">
         <v>1837</v>
       </c>
-      <c r="O36" s="9" t="s">
+      <c r="P36" s="9" t="s">
         <v>1838</v>
       </c>
-      <c r="P36" s="9" t="s">
+      <c r="Q36" s="9" t="s">
         <v>1839</v>
       </c>
-      <c r="Q36" s="9" t="s">
+      <c r="R36" s="9" t="s">
         <v>1840</v>
       </c>
-      <c r="R36" s="9" t="s">
+      <c r="S36" s="9" t="s">
         <v>1841</v>
       </c>
-      <c r="S36" s="9" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="37">
+    </row>
+    <row r="37" spans="1:19" ht="12.75">
       <c r="A37" s="8" t="s">
         <v>668</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E37" s="9" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>1843</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="G37" s="9" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>1844</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>1455</v>
-      </c>
-      <c r="H37" s="9" t="s">
+      <c r="I37" s="9" t="s">
         <v>1845</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="J37" s="9" t="s">
         <v>1846</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="K37" s="9" t="s">
+        <v>1774</v>
+      </c>
+      <c r="L37" s="9" t="s">
         <v>1847</v>
       </c>
-      <c r="K37" s="9" t="s">
-        <v>1775</v>
-      </c>
-      <c r="L37" s="9" t="s">
+      <c r="M37" s="9" t="s">
         <v>1848</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="N37" s="9" t="s">
         <v>1849</v>
       </c>
-      <c r="N37" s="9" t="s">
+      <c r="O37" s="9" t="s">
         <v>1850</v>
       </c>
-      <c r="O37" s="9" t="s">
+      <c r="P37" s="9" t="s">
         <v>1851</v>
       </c>
-      <c r="P37" s="9" t="s">
+      <c r="Q37" s="9" t="s">
         <v>1852</v>
       </c>
-      <c r="Q37" s="9" t="s">
+      <c r="R37" s="9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="S37" s="9" t="s">
         <v>1853</v>
       </c>
-      <c r="R37" s="9" t="s">
-        <v>1505</v>
-      </c>
-      <c r="S37" s="9" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:19" ht="12.75">
       <c r="A38" s="8" t="s">
         <v>686</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>285</v>
@@ -13009,10 +13028,10 @@
         <v>285</v>
       </c>
       <c r="G38" s="9" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>1855</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>1856</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>285</v>
@@ -13030,2521 +13049,2522 @@
         <v>285</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="P38" s="9" t="s">
         <v>303</v>
       </c>
       <c r="Q38" s="9" t="s">
+        <v>1857</v>
+      </c>
+      <c r="R38" s="9" t="s">
         <v>1858</v>
       </c>
-      <c r="R38" s="9" t="s">
-        <v>1859</v>
-      </c>
       <c r="S38" s="9" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15">
       <c r="A39" s="4" t="s">
         <v>704</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>1860</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>1861</v>
-      </c>
       <c r="D39" s="7" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>564</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>1862</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>1863</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>1864</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="J39" s="7" t="s">
         <v>1865</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="K39" s="7" t="s">
         <v>1866</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="L39" s="7" t="s">
+        <v>1852</v>
+      </c>
+      <c r="M39" s="7" t="s">
         <v>1867</v>
       </c>
-      <c r="L39" s="7" t="s">
-        <v>1853</v>
-      </c>
-      <c r="M39" s="7" t="s">
+      <c r="N39" s="7" t="s">
         <v>1868</v>
       </c>
-      <c r="N39" s="7" t="s">
+      <c r="O39" s="7" t="s">
         <v>1869</v>
       </c>
-      <c r="O39" s="7" t="s">
+      <c r="P39" s="7" t="s">
         <v>1870</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>1871</v>
       </c>
-      <c r="Q39" s="7" t="s">
+      <c r="R39" s="7" t="s">
         <v>1872</v>
       </c>
-      <c r="R39" s="7" t="s">
+      <c r="S39" s="7" t="s">
         <v>1873</v>
       </c>
-      <c r="S39" s="7" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="40">
+    </row>
+    <row r="40" spans="1:19" ht="15">
       <c r="A40" s="4" t="s">
         <v>722</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>1875</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>1876</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>1877</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>1878</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>1879</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>1880</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>1881</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>769</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>1881</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>1882</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>1883</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="M40" s="7" t="s">
         <v>1884</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="N40" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>1885</v>
       </c>
-      <c r="N40" s="7" t="s">
-        <v>1349</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>977</v>
-      </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>1886</v>
       </c>
-      <c r="Q40" s="7" t="s">
+      <c r="R40" s="7" t="s">
         <v>1887</v>
       </c>
-      <c r="R40" s="7" t="s">
+      <c r="S40" s="7" t="s">
         <v>1888</v>
       </c>
-      <c r="S40" s="7" t="s">
-        <v>1889</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.63"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12">
-        <v>2005.0</v>
+        <v>2005</v>
       </c>
       <c r="C1" s="12">
-        <v>2006.0</v>
+        <v>2006</v>
       </c>
       <c r="D1" s="12">
-        <v>2007.0</v>
+        <v>2007</v>
       </c>
       <c r="E1" s="12">
-        <v>2008.0</v>
+        <v>2008</v>
       </c>
       <c r="F1" s="12">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="G1" s="12">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="H1" s="12">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="I1" s="12">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="J1" s="12">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="K1" s="12">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="L1" s="12">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="M1" s="12">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="N1" s="12">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="O1" s="12">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="P1" s="12">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="Q1" s="12">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="R1" s="12">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="S1" s="12">
-        <v>2022.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="6">
-        <v>118528.0</v>
+        <v>118528</v>
       </c>
       <c r="C2" s="6">
-        <v>120876.0</v>
+        <v>120876</v>
       </c>
       <c r="D2" s="6">
-        <v>135017.0</v>
+        <v>135017</v>
       </c>
       <c r="E2" s="6">
-        <v>144167.0</v>
+        <v>144167</v>
       </c>
       <c r="F2" s="6">
-        <v>160262.0</v>
+        <v>160262</v>
       </c>
       <c r="G2" s="6">
-        <v>154736.0</v>
+        <v>154736</v>
       </c>
       <c r="H2" s="6">
-        <v>16887.0</v>
+        <v>16887</v>
       </c>
       <c r="I2" s="6">
-        <v>15607.0</v>
+        <v>15607</v>
       </c>
       <c r="J2" s="6">
-        <v>147853.0</v>
+        <v>147853</v>
       </c>
       <c r="K2" s="6">
-        <v>146834.0</v>
+        <v>146834</v>
       </c>
       <c r="L2" s="6">
-        <v>140269.0</v>
+        <v>140269</v>
       </c>
       <c r="M2" s="6">
-        <v>132089.0</v>
+        <v>132089</v>
       </c>
       <c r="N2" s="6">
-        <v>131528.0</v>
+        <v>131528</v>
       </c>
       <c r="O2" s="6">
-        <v>133671.0</v>
+        <v>133671</v>
       </c>
       <c r="P2" s="6">
-        <v>132712.0</v>
+        <v>132712</v>
       </c>
       <c r="Q2" s="6">
-        <v>8058.0</v>
+        <v>8058</v>
       </c>
       <c r="R2" s="6">
-        <v>58777.0</v>
+        <v>58777</v>
       </c>
       <c r="S2" s="6">
-        <v>79801.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>79801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="15">
-        <v>374.0</v>
+        <v>374</v>
       </c>
       <c r="C3" s="15">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="D3" s="15">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="E3" s="15">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="F3" s="15">
-        <v>423.0</v>
+        <v>423</v>
       </c>
       <c r="G3" s="15">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="H3" s="15">
-        <v>371.0</v>
+        <v>371</v>
       </c>
       <c r="I3" s="15">
-        <v>432.0</v>
+        <v>432</v>
       </c>
       <c r="J3" s="15">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="K3" s="15">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="L3" s="15">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="M3" s="15">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="N3" s="15">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="O3" s="15">
-        <v>262.0</v>
+        <v>262</v>
       </c>
       <c r="P3" s="15">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="Q3" s="15">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="R3" s="15">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="S3" s="15">
-        <v>232.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="15">
-        <v>70029.0</v>
+        <v>70029</v>
       </c>
       <c r="C4" s="15">
-        <v>69673.0</v>
+        <v>69673</v>
       </c>
       <c r="D4" s="15">
-        <v>81286.0</v>
+        <v>81286</v>
       </c>
       <c r="E4" s="15">
-        <v>82653.0</v>
+        <v>82653</v>
       </c>
       <c r="F4" s="15">
-        <v>90761.0</v>
+        <v>90761</v>
       </c>
       <c r="G4" s="15">
-        <v>85585.0</v>
+        <v>85585</v>
       </c>
       <c r="H4" s="15">
-        <v>94773.0</v>
+        <v>94773</v>
       </c>
       <c r="I4" s="15">
-        <v>82954.0</v>
+        <v>82954</v>
       </c>
       <c r="J4" s="15">
-        <v>79032.0</v>
+        <v>79032</v>
       </c>
       <c r="K4" s="15">
-        <v>81493.0</v>
+        <v>81493</v>
       </c>
       <c r="L4" s="15">
-        <v>78181.0</v>
+        <v>78181</v>
       </c>
       <c r="M4" s="15">
-        <v>73969.0</v>
+        <v>73969</v>
       </c>
       <c r="N4" s="15">
-        <v>73702.0</v>
+        <v>73702</v>
       </c>
       <c r="O4" s="15">
-        <v>76404.0</v>
+        <v>76404</v>
       </c>
       <c r="P4" s="15">
-        <v>71242.0</v>
+        <v>71242</v>
       </c>
       <c r="Q4" s="15">
-        <v>38724.0</v>
+        <v>38724</v>
       </c>
       <c r="R4" s="15">
-        <v>23577.0</v>
+        <v>23577</v>
       </c>
       <c r="S4" s="15">
-        <v>34198.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>34198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="15">
-        <v>14571.0</v>
+        <v>14571</v>
       </c>
       <c r="C5" s="15">
-        <v>15109.0</v>
+        <v>15109</v>
       </c>
       <c r="D5" s="15">
-        <v>16005.0</v>
+        <v>16005</v>
       </c>
       <c r="E5" s="15">
-        <v>21526.0</v>
+        <v>21526</v>
       </c>
       <c r="F5" s="15">
-        <v>25216.0</v>
+        <v>25216</v>
       </c>
       <c r="G5" s="15">
-        <v>29109.0</v>
+        <v>29109</v>
       </c>
       <c r="H5" s="15">
-        <v>33476.0</v>
+        <v>33476</v>
       </c>
       <c r="I5" s="15">
-        <v>3163.0</v>
+        <v>3163</v>
       </c>
       <c r="J5" s="15">
-        <v>28407.0</v>
+        <v>28407</v>
       </c>
       <c r="K5" s="15">
-        <v>24758.0</v>
+        <v>24758</v>
       </c>
       <c r="L5" s="15">
-        <v>23375.0</v>
+        <v>23375</v>
       </c>
       <c r="M5" s="15">
-        <v>21777.0</v>
+        <v>21777</v>
       </c>
       <c r="N5" s="15">
-        <v>21688.0</v>
+        <v>21688</v>
       </c>
       <c r="O5" s="15">
-        <v>22217.0</v>
+        <v>22217</v>
       </c>
       <c r="P5" s="15">
-        <v>22544.0</v>
+        <v>22544</v>
       </c>
       <c r="Q5" s="15">
-        <v>16434.0</v>
+        <v>16434</v>
       </c>
       <c r="R5" s="15">
-        <v>16972.0</v>
+        <v>16972</v>
       </c>
       <c r="S5" s="15">
-        <v>20034.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>20034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="15">
-        <v>6375.0</v>
+        <v>6375</v>
       </c>
       <c r="C6" s="15">
-        <v>5451.0</v>
+        <v>5451</v>
       </c>
       <c r="D6" s="15">
-        <v>5439.0</v>
+        <v>5439</v>
       </c>
       <c r="E6" s="15">
-        <v>7298.0</v>
+        <v>7298</v>
       </c>
       <c r="F6" s="15">
-        <v>8051.0</v>
+        <v>8051</v>
       </c>
       <c r="G6" s="15">
-        <v>8278.0</v>
+        <v>8278</v>
       </c>
       <c r="H6" s="15">
-        <v>8481.0</v>
+        <v>8481</v>
       </c>
       <c r="I6" s="15">
-        <v>7676.0</v>
+        <v>7676</v>
       </c>
       <c r="J6" s="15">
-        <v>6881.0</v>
+        <v>6881</v>
       </c>
       <c r="K6" s="15">
-        <v>6269.0</v>
+        <v>6269</v>
       </c>
       <c r="L6" s="15">
-        <v>5616.0</v>
+        <v>5616</v>
       </c>
       <c r="M6" s="15">
-        <v>5085.0</v>
+        <v>5085</v>
       </c>
       <c r="N6" s="15">
-        <v>5005.0</v>
+        <v>5005</v>
       </c>
       <c r="O6" s="15">
-        <v>5176.0</v>
+        <v>5176</v>
       </c>
       <c r="P6" s="15">
-        <v>5191.0</v>
+        <v>5191</v>
       </c>
       <c r="Q6" s="15">
-        <v>4406.0</v>
+        <v>4406</v>
       </c>
       <c r="R6" s="15">
-        <v>4383.0</v>
+        <v>4383</v>
       </c>
       <c r="S6" s="15">
-        <v>4715.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>4715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B7" s="15">
-        <v>2072.0</v>
+        <v>2072</v>
       </c>
       <c r="C7" s="15">
-        <v>4435.0</v>
+        <v>4435</v>
       </c>
       <c r="D7" s="15">
-        <v>2365.0</v>
+        <v>2365</v>
       </c>
       <c r="E7" s="15">
-        <v>2227.0</v>
+        <v>2227</v>
       </c>
       <c r="F7" s="15">
-        <v>2291.0</v>
+        <v>2291</v>
       </c>
       <c r="G7" s="15">
-        <v>2216.0</v>
+        <v>2216</v>
       </c>
       <c r="H7" s="15">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I7" s="15">
-        <v>1394.0</v>
+        <v>1394</v>
       </c>
       <c r="J7" s="15">
-        <v>1139.0</v>
+        <v>1139</v>
       </c>
       <c r="K7" s="15">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="L7" s="15">
-        <v>1055.0</v>
+        <v>1055</v>
       </c>
       <c r="M7" s="15">
-        <v>1075.0</v>
+        <v>1075</v>
       </c>
       <c r="N7" s="15">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="O7" s="15">
-        <v>1023.0</v>
+        <v>1023</v>
       </c>
       <c r="P7" s="15">
-        <v>1024.0</v>
+        <v>1024</v>
       </c>
       <c r="Q7" s="15">
-        <v>973.0</v>
+        <v>973</v>
       </c>
       <c r="R7" s="15">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="S7" s="15">
-        <v>1893.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="14" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="15">
-        <v>8886.0</v>
+        <v>8886</v>
       </c>
       <c r="C8" s="15">
-        <v>9238.0</v>
+        <v>9238</v>
       </c>
       <c r="D8" s="15">
-        <v>11442.0</v>
+        <v>11442</v>
       </c>
       <c r="E8" s="15">
-        <v>11406.0</v>
+        <v>11406</v>
       </c>
       <c r="F8" s="15">
-        <v>12145.0</v>
+        <v>12145</v>
       </c>
       <c r="G8" s="15">
-        <v>9453.0</v>
+        <v>9453</v>
       </c>
       <c r="H8" s="15">
-        <v>1013.0</v>
+        <v>1013</v>
       </c>
       <c r="I8" s="15">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="J8" s="15">
-        <v>10089.0</v>
+        <v>10089</v>
       </c>
       <c r="K8" s="15">
-        <v>10189.0</v>
+        <v>10189</v>
       </c>
       <c r="L8" s="15">
-        <v>10035.0</v>
+        <v>10035</v>
       </c>
       <c r="M8" s="15">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="N8" s="15">
-        <v>9477.0</v>
+        <v>9477</v>
       </c>
       <c r="O8" s="15">
-        <v>9214.0</v>
+        <v>9214</v>
       </c>
       <c r="P8" s="15">
-        <v>863.0</v>
+        <v>863</v>
       </c>
       <c r="Q8" s="15">
-        <v>6514.0</v>
+        <v>6514</v>
       </c>
       <c r="R8" s="15">
-        <v>4304.0</v>
+        <v>4304</v>
       </c>
       <c r="S8" s="15">
-        <v>7036.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>7036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="14" t="s">
         <v>151</v>
       </c>
       <c r="B9" s="15">
-        <v>1849.0</v>
+        <v>1849</v>
       </c>
       <c r="C9" s="15">
-        <v>1573.0</v>
+        <v>1573</v>
       </c>
       <c r="D9" s="15">
-        <v>1951.0</v>
+        <v>1951</v>
       </c>
       <c r="E9" s="15">
-        <v>2002.0</v>
+        <v>2002</v>
       </c>
       <c r="F9" s="15">
-        <v>2483.0</v>
+        <v>2483</v>
       </c>
       <c r="G9" s="15">
-        <v>2207.0</v>
+        <v>2207</v>
       </c>
       <c r="H9" s="15">
-        <v>2132.0</v>
+        <v>2132</v>
       </c>
       <c r="I9" s="15">
-        <v>2536.0</v>
+        <v>2536</v>
       </c>
       <c r="J9" s="15">
-        <v>2676.0</v>
+        <v>2676</v>
       </c>
       <c r="K9" s="15">
-        <v>2656.0</v>
+        <v>2656</v>
       </c>
       <c r="L9" s="15">
-        <v>2556.0</v>
+        <v>2556</v>
       </c>
       <c r="M9" s="15">
-        <v>2678.0</v>
+        <v>2678</v>
       </c>
       <c r="N9" s="15">
-        <v>2513.0</v>
+        <v>2513</v>
       </c>
       <c r="O9" s="15">
-        <v>2196.0</v>
+        <v>2196</v>
       </c>
       <c r="P9" s="15">
-        <v>2005.0</v>
+        <v>2005</v>
       </c>
       <c r="Q9" s="15">
-        <v>1267.0</v>
+        <v>1267</v>
       </c>
       <c r="R9" s="15">
-        <v>991.0</v>
+        <v>991</v>
       </c>
       <c r="S9" s="15">
-        <v>1325.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="14" t="s">
         <v>170</v>
       </c>
       <c r="B10" s="15">
-        <v>1055.0</v>
+        <v>1055</v>
       </c>
       <c r="C10" s="15">
-        <v>787.0</v>
+        <v>787</v>
       </c>
       <c r="D10" s="15">
-        <v>1438.0</v>
+        <v>1438</v>
       </c>
       <c r="E10" s="15">
-        <v>1408.0</v>
+        <v>1408</v>
       </c>
       <c r="F10" s="15">
-        <v>2206.0</v>
+        <v>2206</v>
       </c>
       <c r="G10" s="15">
-        <v>2543.0</v>
+        <v>2543</v>
       </c>
       <c r="H10" s="15">
-        <v>2678.0</v>
+        <v>2678</v>
       </c>
       <c r="I10" s="15">
-        <v>3526.0</v>
+        <v>3526</v>
       </c>
       <c r="J10" s="15">
-        <v>2859.0</v>
+        <v>2859</v>
       </c>
       <c r="K10" s="15">
-        <v>2462.0</v>
+        <v>2462</v>
       </c>
       <c r="L10" s="15">
-        <v>1987.0</v>
+        <v>1987</v>
       </c>
       <c r="M10" s="15">
-        <v>1556.0</v>
+        <v>1556</v>
       </c>
       <c r="N10" s="15">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="O10" s="15">
-        <v>755.0</v>
+        <v>755</v>
       </c>
       <c r="P10" s="15">
-        <v>477.0</v>
+        <v>477</v>
       </c>
       <c r="Q10" s="15">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="R10" s="15">
-        <v>341.0</v>
+        <v>341</v>
       </c>
       <c r="S10" s="15">
-        <v>470.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="14" t="s">
         <v>189</v>
       </c>
       <c r="B11" s="15">
-        <v>4757.0</v>
+        <v>4757</v>
       </c>
       <c r="C11" s="15">
-        <v>4752.0</v>
+        <v>4752</v>
       </c>
       <c r="D11" s="15">
-        <v>4467.0</v>
+        <v>4467</v>
       </c>
       <c r="E11" s="15">
-        <v>4571.0</v>
+        <v>4571</v>
       </c>
       <c r="F11" s="15">
-        <v>4893.0</v>
+        <v>4893</v>
       </c>
       <c r="G11" s="15">
-        <v>4626.0</v>
+        <v>4626</v>
       </c>
       <c r="H11" s="15">
-        <v>4557.0</v>
+        <v>4557</v>
       </c>
       <c r="I11" s="15">
-        <v>5367.0</v>
+        <v>5367</v>
       </c>
       <c r="J11" s="15">
-        <v>5525.0</v>
+        <v>5525</v>
       </c>
       <c r="K11" s="15">
-        <v>5523.0</v>
+        <v>5523</v>
       </c>
       <c r="L11" s="15">
-        <v>5457.0</v>
+        <v>5457</v>
       </c>
       <c r="M11" s="15">
-        <v>5065.0</v>
+        <v>5065</v>
       </c>
       <c r="N11" s="15">
-        <v>508.0</v>
+        <v>508</v>
       </c>
       <c r="O11" s="15">
-        <v>4923.0</v>
+        <v>4923</v>
       </c>
       <c r="P11" s="15">
-        <v>4166.0</v>
+        <v>4166</v>
       </c>
       <c r="Q11" s="15">
-        <v>2661.0</v>
+        <v>2661</v>
       </c>
       <c r="R11" s="15">
-        <v>1722.0</v>
+        <v>1722</v>
       </c>
       <c r="S11" s="15">
-        <v>2539.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="14" t="s">
         <v>208</v>
       </c>
       <c r="B12" s="15">
-        <v>4669.0</v>
+        <v>4669</v>
       </c>
       <c r="C12" s="15">
-        <v>529.0</v>
+        <v>529</v>
       </c>
       <c r="D12" s="15">
-        <v>5319.0</v>
+        <v>5319</v>
       </c>
       <c r="E12" s="15">
-        <v>5582.0</v>
+        <v>5582</v>
       </c>
       <c r="F12" s="15">
-        <v>6457.0</v>
+        <v>6457</v>
       </c>
       <c r="G12" s="15">
-        <v>6073.0</v>
+        <v>6073</v>
       </c>
       <c r="H12" s="15">
-        <v>6548.0</v>
+        <v>6548</v>
       </c>
       <c r="I12" s="15">
-        <v>6613.0</v>
+        <v>6613</v>
       </c>
       <c r="J12" s="15">
-        <v>652.0</v>
+        <v>652</v>
       </c>
       <c r="K12" s="15">
-        <v>7338.0</v>
+        <v>7338</v>
       </c>
       <c r="L12" s="15">
-        <v>7568.0</v>
+        <v>7568</v>
       </c>
       <c r="M12" s="15">
-        <v>6914.0</v>
+        <v>6914</v>
       </c>
       <c r="N12" s="15">
-        <v>717.0</v>
+        <v>717</v>
       </c>
       <c r="O12" s="15">
-        <v>6964.0</v>
+        <v>6964</v>
       </c>
       <c r="P12" s="15">
-        <v>13369.0</v>
+        <v>13369</v>
       </c>
       <c r="Q12" s="15">
-        <v>6285.0</v>
+        <v>6285</v>
       </c>
       <c r="R12" s="15">
-        <v>3469.0</v>
+        <v>3469</v>
       </c>
       <c r="S12" s="15">
-        <v>5198.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="14" t="s">
         <v>227</v>
       </c>
       <c r="B13" s="15">
-        <v>3618.0</v>
+        <v>3618</v>
       </c>
       <c r="C13" s="15">
-        <v>3965.0</v>
+        <v>3965</v>
       </c>
       <c r="D13" s="15">
-        <v>4718.0</v>
+        <v>4718</v>
       </c>
       <c r="E13" s="15">
-        <v>4681.0</v>
+        <v>4681</v>
       </c>
       <c r="F13" s="15">
-        <v>4813.0</v>
+        <v>4813</v>
       </c>
       <c r="G13" s="15">
-        <v>3815.0</v>
+        <v>3815</v>
       </c>
       <c r="H13" s="15">
-        <v>3511.0</v>
+        <v>3511</v>
       </c>
       <c r="I13" s="15">
-        <v>3401.0</v>
+        <v>3401</v>
       </c>
       <c r="J13" s="15">
-        <v>3922.0</v>
+        <v>3922</v>
       </c>
       <c r="K13" s="15">
-        <v>4309.0</v>
+        <v>4309</v>
       </c>
       <c r="L13" s="15">
-        <v>382.0</v>
+        <v>382</v>
       </c>
       <c r="M13" s="15">
-        <v>3968.0</v>
+        <v>3968</v>
       </c>
       <c r="N13" s="15">
-        <v>4134.0</v>
+        <v>4134</v>
       </c>
       <c r="O13" s="15">
-        <v>421.0</v>
+        <v>421</v>
       </c>
       <c r="P13" s="15">
-        <v>3469.0</v>
+        <v>3469</v>
       </c>
       <c r="Q13" s="15">
-        <v>2408.0</v>
+        <v>2408</v>
       </c>
       <c r="R13" s="15">
-        <v>1522.0</v>
+        <v>1522</v>
       </c>
       <c r="S13" s="15">
-        <v>1844.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="14" t="s">
         <v>246</v>
       </c>
       <c r="B14" s="15">
-        <v>273.0</v>
+        <v>273</v>
       </c>
       <c r="C14" s="15">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="D14" s="15">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="E14" s="15">
-        <v>443.0</v>
+        <v>443</v>
       </c>
       <c r="F14" s="15">
-        <v>523.0</v>
+        <v>523</v>
       </c>
       <c r="G14" s="15">
-        <v>481.0</v>
+        <v>481</v>
       </c>
       <c r="H14" s="15">
-        <v>513.0</v>
+        <v>513</v>
       </c>
       <c r="I14" s="15">
-        <v>501.0</v>
+        <v>501</v>
       </c>
       <c r="J14" s="15">
-        <v>461.0</v>
+        <v>461</v>
       </c>
       <c r="K14" s="15">
-        <v>362.0</v>
+        <v>362</v>
       </c>
       <c r="L14" s="15">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="M14" s="15">
-        <v>326.0</v>
+        <v>326</v>
       </c>
       <c r="N14" s="15">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="O14" s="15">
-        <v>327.0</v>
+        <v>327</v>
       </c>
       <c r="P14" s="15">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="Q14" s="15">
-        <v>326.0</v>
+        <v>326</v>
       </c>
       <c r="R14" s="15">
-        <v>319.0</v>
+        <v>319</v>
       </c>
       <c r="S14" s="15">
-        <v>317.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>265</v>
       </c>
       <c r="B15" s="6">
-        <v>6867.0</v>
+        <v>6867</v>
       </c>
       <c r="C15" s="6">
-        <v>7261.0</v>
+        <v>7261</v>
       </c>
       <c r="D15" s="6">
-        <v>9062.0</v>
+        <v>9062</v>
       </c>
       <c r="E15" s="6">
-        <v>11397.0</v>
+        <v>11397</v>
       </c>
       <c r="F15" s="6">
-        <v>10834.0</v>
+        <v>10834</v>
       </c>
       <c r="G15" s="6">
-        <v>10632.0</v>
+        <v>10632</v>
       </c>
       <c r="H15" s="6">
-        <v>10698.0</v>
+        <v>10698</v>
       </c>
       <c r="I15" s="6">
-        <v>11393.0</v>
+        <v>11393</v>
       </c>
       <c r="J15" s="6">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="K15" s="6">
-        <v>12415.0</v>
+        <v>12415</v>
       </c>
       <c r="L15" s="6">
-        <v>13283.0</v>
+        <v>13283</v>
       </c>
       <c r="M15" s="6">
-        <v>13347.0</v>
+        <v>13347</v>
       </c>
       <c r="N15" s="6">
-        <v>14406.0</v>
+        <v>14406</v>
       </c>
       <c r="O15" s="6">
-        <v>13248.0</v>
+        <v>13248</v>
       </c>
       <c r="P15" s="6">
-        <v>10213.0</v>
+        <v>10213</v>
       </c>
       <c r="Q15" s="6">
-        <v>6471.0</v>
+        <v>6471</v>
       </c>
       <c r="R15" s="6">
-        <v>6163.0</v>
+        <v>6163</v>
       </c>
       <c r="S15" s="6">
-        <v>8759.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>8759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="14" t="s">
         <v>284</v>
       </c>
       <c r="B16" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M16" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P16" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R16" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S16" s="15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="14" t="s">
         <v>295</v>
       </c>
       <c r="B17" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C17" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="15">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G17" s="15">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="H17" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="15">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J17" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K17" s="15">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L17" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M17" s="15">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="15">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O17" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P17" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="S17" s="15">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="14" t="s">
         <v>313</v>
       </c>
       <c r="B18" s="15">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="C18" s="15">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="D18" s="15">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="E18" s="15">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="F18" s="15">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="G18" s="15">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="H18" s="15">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="I18" s="15">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="J18" s="15">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="K18" s="15">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="L18" s="15">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="M18" s="15">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="N18" s="15">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="O18" s="15">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P18" s="15">
-        <v>488.0</v>
+        <v>488</v>
       </c>
       <c r="Q18" s="15">
-        <v>398.0</v>
+        <v>398</v>
       </c>
       <c r="R18" s="15">
-        <v>415.0</v>
+        <v>415</v>
       </c>
       <c r="S18" s="15">
-        <v>446.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="14" t="s">
         <v>331</v>
       </c>
       <c r="B19" s="15">
-        <v>4508.0</v>
+        <v>4508</v>
       </c>
       <c r="C19" s="15">
-        <v>6807.0</v>
+        <v>6807</v>
       </c>
       <c r="D19" s="15">
-        <v>8509.0</v>
+        <v>8509</v>
       </c>
       <c r="E19" s="15">
-        <v>10599.0</v>
+        <v>10599</v>
       </c>
       <c r="F19" s="15">
-        <v>10085.0</v>
+        <v>10085</v>
       </c>
       <c r="G19" s="15">
-        <v>9894.0</v>
+        <v>9894</v>
       </c>
       <c r="H19" s="15">
-        <v>10059.0</v>
+        <v>10059</v>
       </c>
       <c r="I19" s="15">
-        <v>10761.0</v>
+        <v>10761</v>
       </c>
       <c r="J19" s="15">
-        <v>10488.0</v>
+        <v>10488</v>
       </c>
       <c r="K19" s="15">
-        <v>11816.0</v>
+        <v>11816</v>
       </c>
       <c r="L19" s="15">
-        <v>12606.0</v>
+        <v>12606</v>
       </c>
       <c r="M19" s="15">
-        <v>12571.0</v>
+        <v>12571</v>
       </c>
       <c r="N19" s="15">
-        <v>13371.0</v>
+        <v>13371</v>
       </c>
       <c r="O19" s="15">
-        <v>12129.0</v>
+        <v>12129</v>
       </c>
       <c r="P19" s="15">
-        <v>9005.0</v>
+        <v>9005</v>
       </c>
       <c r="Q19" s="15">
-        <v>5206.0</v>
+        <v>5206</v>
       </c>
       <c r="R19" s="15">
-        <v>4905.0</v>
+        <v>4905</v>
       </c>
       <c r="S19" s="15">
-        <v>7253.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>7253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="14" t="s">
         <v>350</v>
       </c>
       <c r="B20" s="15">
-        <v>2146.0</v>
+        <v>2146</v>
       </c>
       <c r="C20" s="15">
-        <v>382.0</v>
+        <v>382</v>
       </c>
       <c r="D20" s="15">
-        <v>449.0</v>
+        <v>449</v>
       </c>
       <c r="E20" s="15">
-        <v>573.0</v>
+        <v>573</v>
       </c>
       <c r="F20" s="15">
-        <v>606.0</v>
+        <v>606</v>
       </c>
       <c r="G20" s="15">
-        <v>582.0</v>
+        <v>582</v>
       </c>
       <c r="H20" s="15">
-        <v>497.0</v>
+        <v>497</v>
       </c>
       <c r="I20" s="15">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="J20" s="15">
-        <v>476.0</v>
+        <v>476</v>
       </c>
       <c r="K20" s="15">
-        <v>409.0</v>
+        <v>409</v>
       </c>
       <c r="L20" s="15">
-        <v>459.0</v>
+        <v>459</v>
       </c>
       <c r="M20" s="15">
-        <v>546.0</v>
+        <v>546</v>
       </c>
       <c r="N20" s="15">
-        <v>741.0</v>
+        <v>741</v>
       </c>
       <c r="O20" s="15">
-        <v>816.0</v>
+        <v>816</v>
       </c>
       <c r="P20" s="15">
-        <v>719.0</v>
+        <v>719</v>
       </c>
       <c r="Q20" s="15">
-        <v>866.0</v>
+        <v>866</v>
       </c>
       <c r="R20" s="15">
-        <v>840.0</v>
+        <v>840</v>
       </c>
       <c r="S20" s="15">
-        <v>1058.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>367</v>
       </c>
       <c r="B21" s="6">
-        <v>241058.0</v>
+        <v>241058</v>
       </c>
       <c r="C21" s="6">
-        <v>16809.0</v>
+        <v>16809</v>
       </c>
       <c r="D21" s="6">
-        <v>123825.0</v>
+        <v>123825</v>
       </c>
       <c r="E21" s="6">
-        <v>124926.0</v>
+        <v>124926</v>
       </c>
       <c r="F21" s="6">
-        <v>130656.0</v>
+        <v>130656</v>
       </c>
       <c r="G21" s="6">
-        <v>113605.0</v>
+        <v>113605</v>
       </c>
       <c r="H21" s="6">
-        <v>80621.0</v>
+        <v>80621</v>
       </c>
       <c r="I21" s="6">
-        <v>64757.0</v>
+        <v>64757</v>
       </c>
       <c r="J21" s="6">
-        <v>53491.0</v>
+        <v>53491</v>
       </c>
       <c r="K21" s="6">
-        <v>45467.0</v>
+        <v>45467</v>
       </c>
       <c r="L21" s="6">
-        <v>42892.0</v>
+        <v>42892</v>
       </c>
       <c r="M21" s="6">
-        <v>40153.0</v>
+        <v>40153</v>
       </c>
       <c r="N21" s="6">
-        <v>41598.0</v>
+        <v>41598</v>
       </c>
       <c r="O21" s="6">
-        <v>43372.0</v>
+        <v>43372</v>
       </c>
       <c r="P21" s="6">
-        <v>60351.0</v>
+        <v>60351</v>
       </c>
       <c r="Q21" s="6">
-        <v>43898.0</v>
+        <v>43898</v>
       </c>
       <c r="R21" s="6">
-        <v>39503.0</v>
+        <v>39503</v>
       </c>
       <c r="S21" s="6">
-        <v>40072.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>40072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="14" t="s">
         <v>386</v>
       </c>
       <c r="B22" s="15">
-        <v>2964.0</v>
+        <v>2964</v>
       </c>
       <c r="C22" s="15">
-        <v>4523.0</v>
+        <v>4523</v>
       </c>
       <c r="D22" s="15">
-        <v>7993.0</v>
+        <v>7993</v>
       </c>
       <c r="E22" s="15">
-        <v>14111.0</v>
+        <v>14111</v>
       </c>
       <c r="F22" s="15">
-        <v>16891.0</v>
+        <v>16891</v>
       </c>
       <c r="G22" s="15">
-        <v>17919.0</v>
+        <v>17919</v>
       </c>
       <c r="H22" s="15">
-        <v>21276.0</v>
+        <v>21276</v>
       </c>
       <c r="I22" s="15">
-        <v>23133.0</v>
+        <v>23133</v>
       </c>
       <c r="J22" s="15">
-        <v>23385.0</v>
+        <v>23385</v>
       </c>
       <c r="K22" s="15">
-        <v>21113.0</v>
+        <v>21113</v>
       </c>
       <c r="L22" s="15">
-        <v>20176.0</v>
+        <v>20176</v>
       </c>
       <c r="M22" s="15">
-        <v>19329.0</v>
+        <v>19329</v>
       </c>
       <c r="N22" s="15">
-        <v>20988.0</v>
+        <v>20988</v>
       </c>
       <c r="O22" s="15">
-        <v>21339.0</v>
+        <v>21339</v>
       </c>
       <c r="P22" s="15">
-        <v>23057.0</v>
+        <v>23057</v>
       </c>
       <c r="Q22" s="15">
-        <v>22189.0</v>
+        <v>22189</v>
       </c>
       <c r="R22" s="15">
-        <v>24604.0</v>
+        <v>24604</v>
       </c>
       <c r="S22" s="15">
-        <v>24991.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>24991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="12.75">
       <c r="A23" s="14" t="s">
         <v>405</v>
       </c>
       <c r="B23" s="15">
-        <v>35549.0</v>
+        <v>35549</v>
       </c>
       <c r="C23" s="15">
-        <v>27603.0</v>
+        <v>27603</v>
       </c>
       <c r="D23" s="15">
-        <v>18488.0</v>
+        <v>18488</v>
       </c>
       <c r="E23" s="15">
-        <v>16128.0</v>
+        <v>16128</v>
       </c>
       <c r="F23" s="15">
-        <v>20505.0</v>
+        <v>20505</v>
       </c>
       <c r="G23" s="15">
-        <v>1916.0</v>
+        <v>1916</v>
       </c>
       <c r="H23" s="15">
-        <v>1035.0</v>
+        <v>1035</v>
       </c>
       <c r="I23" s="15">
-        <v>4564.0</v>
+        <v>4564</v>
       </c>
       <c r="J23" s="15">
-        <v>515.0</v>
+        <v>515</v>
       </c>
       <c r="K23" s="15">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="L23" s="15">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="M23" s="15">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="N23" s="15">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="O23" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P23" s="15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="15">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="R23" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="S23" s="15">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="12.75">
       <c r="A24" s="14" t="s">
         <v>424</v>
       </c>
       <c r="B24" s="15">
-        <v>5336.0</v>
+        <v>5336</v>
       </c>
       <c r="C24" s="15">
-        <v>41713.0</v>
+        <v>41713</v>
       </c>
       <c r="D24" s="15">
-        <v>20558.0</v>
+        <v>20558</v>
       </c>
       <c r="E24" s="15">
-        <v>17847.0</v>
+        <v>17847</v>
       </c>
       <c r="F24" s="15">
-        <v>19872.0</v>
+        <v>19872</v>
       </c>
       <c r="G24" s="15">
-        <v>13704.0</v>
+        <v>13704</v>
       </c>
       <c r="H24" s="15">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="I24" s="15">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="J24" s="15">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="K24" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L24" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M24" s="15">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="15">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="O24" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R24" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S24" s="15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="12.75">
       <c r="A25" s="14" t="s">
         <v>443</v>
       </c>
       <c r="B25" s="15">
-        <v>7986.0</v>
+        <v>7986</v>
       </c>
       <c r="C25" s="15">
-        <v>746.0</v>
+        <v>746</v>
       </c>
       <c r="D25" s="15">
-        <v>8448.0</v>
+        <v>8448</v>
       </c>
       <c r="E25" s="15">
-        <v>965.0</v>
+        <v>965</v>
       </c>
       <c r="F25" s="15">
-        <v>10449.0</v>
+        <v>10449</v>
       </c>
       <c r="G25" s="15">
-        <v>9003.0</v>
+        <v>9003</v>
       </c>
       <c r="H25" s="15">
-        <v>1142.0</v>
+        <v>1142</v>
       </c>
       <c r="I25" s="15">
-        <v>1049.0</v>
+        <v>1049</v>
       </c>
       <c r="J25" s="15">
-        <v>9053.0</v>
+        <v>9053</v>
       </c>
       <c r="K25" s="15">
-        <v>8164.0</v>
+        <v>8164</v>
       </c>
       <c r="L25" s="15">
-        <v>7213.0</v>
+        <v>7213</v>
       </c>
       <c r="M25" s="15">
-        <v>6699.0</v>
+        <v>6699</v>
       </c>
       <c r="N25" s="15">
-        <v>6354.0</v>
+        <v>6354</v>
       </c>
       <c r="O25" s="15">
-        <v>6647.0</v>
+        <v>6647</v>
       </c>
       <c r="P25" s="15">
-        <v>7729.0</v>
+        <v>7729</v>
       </c>
       <c r="Q25" s="15">
-        <v>5209.0</v>
+        <v>5209</v>
       </c>
       <c r="R25" s="15">
-        <v>489.0</v>
+        <v>489</v>
       </c>
       <c r="S25" s="15">
-        <v>5276.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>5276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="12.75">
       <c r="A26" s="14" t="s">
         <v>462</v>
       </c>
       <c r="B26" s="15">
-        <v>35687.0</v>
+        <v>35687</v>
       </c>
       <c r="C26" s="15">
-        <v>24142.0</v>
+        <v>24142</v>
       </c>
       <c r="D26" s="15">
-        <v>23243.0</v>
+        <v>23243</v>
       </c>
       <c r="E26" s="15">
-        <v>25531.0</v>
+        <v>25531</v>
       </c>
       <c r="F26" s="15">
-        <v>25233.0</v>
+        <v>25233</v>
       </c>
       <c r="G26" s="15">
-        <v>25638.0</v>
+        <v>25638</v>
       </c>
       <c r="H26" s="15">
-        <v>24922.0</v>
+        <v>24922</v>
       </c>
       <c r="I26" s="15">
-        <v>14092.0</v>
+        <v>14092</v>
       </c>
       <c r="J26" s="15">
-        <v>8442.0</v>
+        <v>8442</v>
       </c>
       <c r="K26" s="15">
-        <v>5362.0</v>
+        <v>5362</v>
       </c>
       <c r="L26" s="15">
-        <v>4886.0</v>
+        <v>4886</v>
       </c>
       <c r="M26" s="15">
-        <v>4387.0</v>
+        <v>4387</v>
       </c>
       <c r="N26" s="15">
-        <v>3608.0</v>
+        <v>3608</v>
       </c>
       <c r="O26" s="15">
-        <v>4249.0</v>
+        <v>4249</v>
       </c>
       <c r="P26" s="15">
-        <v>17102.0</v>
+        <v>17102</v>
       </c>
       <c r="Q26" s="15">
-        <v>7742.0</v>
+        <v>7742</v>
       </c>
       <c r="R26" s="15">
-        <v>2099.0</v>
+        <v>2099</v>
       </c>
       <c r="S26" s="15">
-        <v>1464.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="12.75">
       <c r="A27" s="14" t="s">
         <v>481</v>
       </c>
       <c r="B27" s="15">
-        <v>102024.0</v>
+        <v>102024</v>
       </c>
       <c r="C27" s="15">
-        <v>61472.0</v>
+        <v>61472</v>
       </c>
       <c r="D27" s="15">
-        <v>41766.0</v>
+        <v>41766</v>
       </c>
       <c r="E27" s="15">
-        <v>36112.0</v>
+        <v>36112</v>
       </c>
       <c r="F27" s="15">
-        <v>30073.0</v>
+        <v>30073</v>
       </c>
       <c r="G27" s="15">
-        <v>18781.0</v>
+        <v>18781</v>
       </c>
       <c r="H27" s="15">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="I27" s="15">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="J27" s="15">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="K27" s="15">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="L27" s="15">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="M27" s="15">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N27" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="O27" s="15">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P27" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R27" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S27" s="15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="12.75">
       <c r="A28" s="14" t="s">
         <v>500</v>
       </c>
       <c r="B28" s="15">
-        <v>3485.0</v>
+        <v>3485</v>
       </c>
       <c r="C28" s="15">
-        <v>1176.0</v>
+        <v>1176</v>
       </c>
       <c r="D28" s="15">
-        <v>892.0</v>
+        <v>892</v>
       </c>
       <c r="E28" s="15">
-        <v>1228.0</v>
+        <v>1228</v>
       </c>
       <c r="F28" s="15">
-        <v>944.0</v>
+        <v>944</v>
       </c>
       <c r="G28" s="15">
-        <v>870.0</v>
+        <v>870</v>
       </c>
       <c r="H28" s="15">
-        <v>1238.0</v>
+        <v>1238</v>
       </c>
       <c r="I28" s="15">
-        <v>1062.0</v>
+        <v>1062</v>
       </c>
       <c r="J28" s="15">
-        <v>723.0</v>
+        <v>723</v>
       </c>
       <c r="K28" s="15">
-        <v>695.0</v>
+        <v>695</v>
       </c>
       <c r="L28" s="15">
-        <v>544.0</v>
+        <v>544</v>
       </c>
       <c r="M28" s="15">
-        <v>628.0</v>
+        <v>628</v>
       </c>
       <c r="N28" s="15">
-        <v>586.0</v>
+        <v>586</v>
       </c>
       <c r="O28" s="15">
-        <v>548.0</v>
+        <v>548</v>
       </c>
       <c r="P28" s="15">
-        <v>755.0</v>
+        <v>755</v>
       </c>
       <c r="Q28" s="15">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="R28" s="15">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="S28" s="15">
-        <v>278.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="12.75">
       <c r="A29" s="14" t="s">
         <v>519</v>
       </c>
       <c r="B29" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C29" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D29" s="15">
-        <v>2435.0</v>
+        <v>2435</v>
       </c>
       <c r="E29" s="15">
-        <v>4308.0</v>
+        <v>4308</v>
       </c>
       <c r="F29" s="15">
-        <v>6688.0</v>
+        <v>6688</v>
       </c>
       <c r="G29" s="15">
-        <v>851.0</v>
+        <v>851</v>
       </c>
       <c r="H29" s="15">
-        <v>11294.0</v>
+        <v>11294</v>
       </c>
       <c r="I29" s="15">
-        <v>11292.0</v>
+        <v>11292</v>
       </c>
       <c r="J29" s="15">
-        <v>11315.0</v>
+        <v>11315</v>
       </c>
       <c r="K29" s="15">
-        <v>9917.0</v>
+        <v>9917</v>
       </c>
       <c r="L29" s="15">
-        <v>9945.0</v>
+        <v>9945</v>
       </c>
       <c r="M29" s="15">
-        <v>9073.0</v>
+        <v>9073</v>
       </c>
       <c r="N29" s="15">
-        <v>10049.0</v>
+        <v>10049</v>
       </c>
       <c r="O29" s="15">
-        <v>10583.0</v>
+        <v>10583</v>
       </c>
       <c r="P29" s="15">
-        <v>11685.0</v>
+        <v>11685</v>
       </c>
       <c r="Q29" s="15">
-        <v>8176.0</v>
+        <v>8176</v>
       </c>
       <c r="R29" s="15">
-        <v>7592.0</v>
+        <v>7592</v>
       </c>
       <c r="S29" s="15">
-        <v>8035.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>8035</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="12.75">
       <c r="A30" s="14" t="s">
         <v>536</v>
       </c>
       <c r="B30" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C30" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="15">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="15">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F30" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="15">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H30" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I30" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K30" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L30" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M30" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N30" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O30" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P30" s="15">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Q30" s="15">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="R30" s="15">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="S30" s="15">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15">
       <c r="A31" s="13" t="s">
         <v>555</v>
       </c>
       <c r="B31" s="6">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="C31" s="6">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="D31" s="6">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="E31" s="6">
-        <v>384.0</v>
+        <v>384</v>
       </c>
       <c r="F31" s="6">
-        <v>519.0</v>
+        <v>519</v>
       </c>
       <c r="G31" s="6">
-        <v>693.0</v>
+        <v>693</v>
       </c>
       <c r="H31" s="6">
-        <v>572.0</v>
+        <v>572</v>
       </c>
       <c r="I31" s="6">
-        <v>529.0</v>
+        <v>529</v>
       </c>
       <c r="J31" s="6">
-        <v>478.0</v>
+        <v>478</v>
       </c>
       <c r="K31" s="6">
-        <v>402.0</v>
+        <v>402</v>
       </c>
       <c r="L31" s="6">
-        <v>423.0</v>
+        <v>423</v>
       </c>
       <c r="M31" s="6">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="N31" s="6">
-        <v>368.0</v>
+        <v>368</v>
       </c>
       <c r="O31" s="6">
-        <v>345.0</v>
+        <v>345</v>
       </c>
       <c r="P31" s="6">
-        <v>348.0</v>
+        <v>348</v>
       </c>
       <c r="Q31" s="6">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="R31" s="6">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="S31" s="6">
-        <v>138.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15">
       <c r="A32" s="13" t="s">
         <v>574</v>
       </c>
       <c r="B32" s="6">
-        <v>664.0</v>
+        <v>664</v>
       </c>
       <c r="C32" s="6">
-        <v>586.0</v>
+        <v>586</v>
       </c>
       <c r="D32" s="6">
-        <v>716.0</v>
+        <v>716</v>
       </c>
       <c r="E32" s="6">
-        <v>1083.0</v>
+        <v>1083</v>
       </c>
       <c r="F32" s="6">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="G32" s="6">
-        <v>1293.0</v>
+        <v>1293</v>
       </c>
       <c r="H32" s="6">
-        <v>1483.0</v>
+        <v>1483</v>
       </c>
       <c r="I32" s="6">
-        <v>1417.0</v>
+        <v>1417</v>
       </c>
       <c r="J32" s="6">
-        <v>1154.0</v>
+        <v>1154</v>
       </c>
       <c r="K32" s="6">
-        <v>988.0</v>
+        <v>988</v>
       </c>
       <c r="L32" s="6">
-        <v>970.0</v>
+        <v>970</v>
       </c>
       <c r="M32" s="6">
-        <v>890.0</v>
+        <v>890</v>
       </c>
       <c r="N32" s="6">
-        <v>931.0</v>
+        <v>931</v>
       </c>
       <c r="O32" s="6">
-        <v>969.0</v>
+        <v>969</v>
       </c>
       <c r="P32" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q32" s="6">
-        <v>1055.0</v>
+        <v>1055</v>
       </c>
       <c r="R32" s="6">
-        <v>1164.0</v>
+        <v>1164</v>
       </c>
       <c r="S32" s="6">
-        <v>1282.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15">
       <c r="A33" s="13" t="s">
         <v>592</v>
       </c>
       <c r="B33" s="6">
-        <v>2182.0</v>
+        <v>2182</v>
       </c>
       <c r="C33" s="6">
-        <v>6723.0</v>
+        <v>6723</v>
       </c>
       <c r="D33" s="6">
-        <v>12182.0</v>
+        <v>12182</v>
       </c>
       <c r="E33" s="6">
-        <v>2132.0</v>
+        <v>2132</v>
       </c>
       <c r="F33" s="6">
-        <v>28354.0</v>
+        <v>28354</v>
       </c>
       <c r="G33" s="6">
-        <v>30233.0</v>
+        <v>30233</v>
       </c>
       <c r="H33" s="6">
-        <v>36068.0</v>
+        <v>36068</v>
       </c>
       <c r="I33" s="6">
-        <v>35571.0</v>
+        <v>35571</v>
       </c>
       <c r="J33" s="6">
-        <v>34332.0</v>
+        <v>34332</v>
       </c>
       <c r="K33" s="6">
-        <v>31183.0</v>
+        <v>31183</v>
       </c>
       <c r="L33" s="6">
-        <v>29226.0</v>
+        <v>29226</v>
       </c>
       <c r="M33" s="6">
-        <v>2705.0</v>
+        <v>2705</v>
       </c>
       <c r="N33" s="6">
-        <v>28822.0</v>
+        <v>28822</v>
       </c>
       <c r="O33" s="6">
-        <v>29146.0</v>
+        <v>29146</v>
       </c>
       <c r="P33" s="6">
-        <v>30504.0</v>
+        <v>30504</v>
       </c>
       <c r="Q33" s="6">
-        <v>28327.0</v>
+        <v>28327</v>
       </c>
       <c r="R33" s="6">
-        <v>3045.0</v>
+        <v>3045</v>
       </c>
       <c r="S33" s="6">
-        <v>27234.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>27234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="12.75">
       <c r="A34" s="14" t="s">
         <v>611</v>
       </c>
       <c r="B34" s="15">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C34" s="15">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="D34" s="15">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="E34" s="15">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="F34" s="15">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="G34" s="15">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="H34" s="15">
-        <v>252.0</v>
+        <v>252</v>
       </c>
       <c r="I34" s="15">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="J34" s="15">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="K34" s="15">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="L34" s="15">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="M34" s="15">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="N34" s="15">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="O34" s="15">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="P34" s="15">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="Q34" s="15">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="R34" s="15">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="S34" s="15">
-        <v>257.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="12.75">
       <c r="A35" s="14" t="s">
         <v>630</v>
       </c>
       <c r="B35" s="15">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="C35" s="15">
-        <v>531.0</v>
+        <v>531</v>
       </c>
       <c r="D35" s="15">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="E35" s="15">
-        <v>1877.0</v>
+        <v>1877</v>
       </c>
       <c r="F35" s="15">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="G35" s="15">
-        <v>3712.0</v>
+        <v>3712</v>
       </c>
       <c r="H35" s="15">
-        <v>4866.0</v>
+        <v>4866</v>
       </c>
       <c r="I35" s="15">
-        <v>5343.0</v>
+        <v>5343</v>
       </c>
       <c r="J35" s="15">
-        <v>5529.0</v>
+        <v>5529</v>
       </c>
       <c r="K35" s="15">
-        <v>505.0</v>
+        <v>505</v>
       </c>
       <c r="L35" s="15">
-        <v>5171.0</v>
+        <v>5171</v>
       </c>
       <c r="M35" s="15">
-        <v>4691.0</v>
+        <v>4691</v>
       </c>
       <c r="N35" s="15">
-        <v>5133.0</v>
+        <v>5133</v>
       </c>
       <c r="O35" s="15">
-        <v>5137.0</v>
+        <v>5137</v>
       </c>
       <c r="P35" s="15">
-        <v>5305.0</v>
+        <v>5305</v>
       </c>
       <c r="Q35" s="15">
-        <v>523.0</v>
+        <v>523</v>
       </c>
       <c r="R35" s="15">
-        <v>5306.0</v>
+        <v>5306</v>
       </c>
       <c r="S35" s="15">
-        <v>466.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="12.75">
       <c r="A36" s="14" t="s">
         <v>649</v>
       </c>
       <c r="B36" s="15">
-        <v>1932.0</v>
+        <v>1932</v>
       </c>
       <c r="C36" s="15">
-        <v>5898.0</v>
+        <v>5898</v>
       </c>
       <c r="D36" s="15">
-        <v>10661.0</v>
+        <v>10661</v>
       </c>
       <c r="E36" s="15">
-        <v>18451.0</v>
+        <v>18451</v>
       </c>
       <c r="F36" s="15">
-        <v>23915.0</v>
+        <v>23915</v>
       </c>
       <c r="G36" s="15">
-        <v>24796.0</v>
+        <v>24796</v>
       </c>
       <c r="H36" s="15">
-        <v>29087.0</v>
+        <v>29087</v>
       </c>
       <c r="I36" s="15">
-        <v>28205.0</v>
+        <v>28205</v>
       </c>
       <c r="J36" s="15">
-        <v>27022.0</v>
+        <v>27022</v>
       </c>
       <c r="K36" s="15">
-        <v>24578.0</v>
+        <v>24578</v>
       </c>
       <c r="L36" s="15">
-        <v>22561.0</v>
+        <v>22561</v>
       </c>
       <c r="M36" s="15">
-        <v>21047.0</v>
+        <v>21047</v>
       </c>
       <c r="N36" s="15">
-        <v>22447.0</v>
+        <v>22447</v>
       </c>
       <c r="O36" s="15">
-        <v>22697.0</v>
+        <v>22697</v>
       </c>
       <c r="P36" s="15">
-        <v>23742.0</v>
+        <v>23742</v>
       </c>
       <c r="Q36" s="15">
-        <v>21911.0</v>
+        <v>21911</v>
       </c>
       <c r="R36" s="15">
-        <v>2361.0</v>
+        <v>2361</v>
       </c>
       <c r="S36" s="15">
-        <v>21155.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>21155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="12.75">
       <c r="A37" s="14" t="s">
         <v>668</v>
       </c>
       <c r="B37" s="15">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="C37" s="15">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="D37" s="15">
-        <v>429.0</v>
+        <v>429</v>
       </c>
       <c r="E37" s="15">
-        <v>839.0</v>
+        <v>839</v>
       </c>
       <c r="F37" s="15">
-        <v>1286.0</v>
+        <v>1286</v>
       </c>
       <c r="G37" s="15">
-        <v>1487.0</v>
+        <v>1487</v>
       </c>
       <c r="H37" s="15">
-        <v>1853.0</v>
+        <v>1853</v>
       </c>
       <c r="I37" s="15">
-        <v>1755.0</v>
+        <v>1755</v>
       </c>
       <c r="J37" s="15">
-        <v>1563.0</v>
+        <v>1563</v>
       </c>
       <c r="K37" s="15">
-        <v>1349.0</v>
+        <v>1349</v>
       </c>
       <c r="L37" s="15">
-        <v>1262.0</v>
+        <v>1262</v>
       </c>
       <c r="M37" s="15">
-        <v>1128.0</v>
+        <v>1128</v>
       </c>
       <c r="N37" s="15">
-        <v>1006.0</v>
+        <v>1006</v>
       </c>
       <c r="O37" s="15">
-        <v>1049.0</v>
+        <v>1049</v>
       </c>
       <c r="P37" s="15">
-        <v>1115.0</v>
+        <v>1115</v>
       </c>
       <c r="Q37" s="15">
-        <v>805.0</v>
+        <v>805</v>
       </c>
       <c r="R37" s="15">
-        <v>864.0</v>
+        <v>864</v>
       </c>
       <c r="S37" s="15">
-        <v>773.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="12.75">
       <c r="A38" s="14" t="s">
         <v>686</v>
       </c>
       <c r="B38" s="15">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C38" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D38" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E38" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F38" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G38" s="15">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="H38" s="15">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I38" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J38" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K38" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L38" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M38" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N38" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O38" s="15">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="P38" s="15">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="Q38" s="15">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="R38" s="15">
-        <v>402.0</v>
+        <v>402</v>
       </c>
       <c r="S38" s="15">
-        <v>389.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15">
       <c r="A39" s="13" t="s">
         <v>704</v>
       </c>
       <c r="B39" s="6">
-        <v>3552.0</v>
+        <v>3552</v>
       </c>
       <c r="C39" s="6">
-        <v>5701.0</v>
+        <v>5701</v>
       </c>
       <c r="D39" s="6">
-        <v>5317.0</v>
+        <v>5317</v>
       </c>
       <c r="E39" s="6">
-        <v>6915.0</v>
+        <v>6915</v>
       </c>
       <c r="F39" s="6">
-        <v>8403.0</v>
+        <v>8403</v>
       </c>
       <c r="G39" s="6">
-        <v>9267.0</v>
+        <v>9267</v>
       </c>
       <c r="H39" s="6">
-        <v>10162.0</v>
+        <v>10162</v>
       </c>
       <c r="I39" s="6">
-        <v>8482.0</v>
+        <v>8482</v>
       </c>
       <c r="J39" s="6">
-        <v>916.0</v>
+        <v>916</v>
       </c>
       <c r="K39" s="6">
-        <v>9916.0</v>
+        <v>9916</v>
       </c>
       <c r="L39" s="6">
-        <v>10819.0</v>
+        <v>10819</v>
       </c>
       <c r="M39" s="6">
-        <v>1066.0</v>
+        <v>1066</v>
       </c>
       <c r="N39" s="6">
-        <v>11152.0</v>
+        <v>11152</v>
       </c>
       <c r="O39" s="6">
-        <v>11545.0</v>
+        <v>11545</v>
       </c>
       <c r="P39" s="6">
-        <v>1264.0</v>
+        <v>1264</v>
       </c>
       <c r="Q39" s="6">
-        <v>9406.0</v>
+        <v>9406</v>
       </c>
       <c r="R39" s="6">
-        <v>8453.0</v>
+        <v>8453</v>
       </c>
       <c r="S39" s="6">
-        <v>13689.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>13689</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15">
       <c r="A40" s="13" t="s">
         <v>722</v>
       </c>
       <c r="B40" s="6">
-        <v>5047.0</v>
+        <v>5047</v>
       </c>
       <c r="C40" s="6">
-        <v>4632.0</v>
+        <v>4632</v>
       </c>
       <c r="D40" s="6">
-        <v>4692.0</v>
+        <v>4692</v>
       </c>
       <c r="E40" s="6">
-        <v>4412.0</v>
+        <v>4412</v>
       </c>
       <c r="F40" s="6">
-        <v>5423.0</v>
+        <v>5423</v>
       </c>
       <c r="G40" s="6">
-        <v>4941.0</v>
+        <v>4941</v>
       </c>
       <c r="H40" s="6">
-        <v>5162.0</v>
+        <v>5162</v>
       </c>
       <c r="I40" s="6">
-        <v>4147.0</v>
+        <v>4147</v>
       </c>
       <c r="J40" s="6">
-        <v>4541.0</v>
+        <v>4541</v>
       </c>
       <c r="K40" s="6">
-        <v>5179.0</v>
+        <v>5179</v>
       </c>
       <c r="L40" s="6">
-        <v>4842.0</v>
+        <v>4842</v>
       </c>
       <c r="M40" s="6">
-        <v>422.0</v>
+        <v>422</v>
       </c>
       <c r="N40" s="6">
-        <v>3944.0</v>
+        <v>3944</v>
       </c>
       <c r="O40" s="6">
-        <v>3414.0</v>
+        <v>3414</v>
       </c>
       <c r="P40" s="6">
-        <v>356.0</v>
+        <v>356</v>
       </c>
       <c r="Q40" s="6">
-        <v>2594.0</v>
+        <v>2594</v>
       </c>
       <c r="R40" s="6">
-        <v>1754.0</v>
+        <v>1754</v>
       </c>
       <c r="S40" s="6">
-        <v>2466.0</v>
+        <v>2466</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>